--- a/仕様書/バグ取りスイマー_仕様書_SE_ME_リソース.xlsx
+++ b/仕様書/バグ取りスイマー_仕様書_SE_ME_リソース.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ゲーム制作サークル\2023年度\日本ゲーム大賞アマチュア部門\JGA_2023_バージョン管理\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2D6A5A-1E2D-486A-93B5-F4A9F586B30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2F6906-2B94-4851-B266-E6E108D632F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="94">
   <si>
     <t>仕様書：更新履歴</t>
     <rPh sb="0" eb="3">
@@ -270,6 +270,476 @@
     <t>バグ取りスイマー_仕様書_SE_ME_リソース</t>
     <rPh sb="9" eb="12">
       <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルからゲームスタートする時のSE</t>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクロール音</t>
+    <rPh sb="5" eb="6">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージを選ぶ時や遊び方表のページを移動する時に鳴る音</t>
+    <rPh sb="5" eb="6">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カタヒョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.5秒</t>
+    <rPh sb="3" eb="4">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセル音</t>
+    <rPh sb="5" eb="6">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定したものをキャンセルした時や戻る時の音</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定音</t>
+    <rPh sb="0" eb="3">
+      <t>ケッテイオト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイマーの泳ぐ音</t>
+    <rPh sb="5" eb="6">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号の発生音</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハッセイオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネルギーを溜める音</t>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネルギーを解放する音</t>
+    <rPh sb="6" eb="8">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイマーが泳いでいる時、泡が出る音</t>
+    <rPh sb="5" eb="6">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号のエフェクトがエラーコードに到達した時に発生する音</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号がコードの上を走るように流れる音</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突く音</t>
+    <rPh sb="0" eb="1">
+      <t>ツツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号が到達した時のエラー音</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイマーがパワーシェルを消費してエネルギーをチャージする音</t>
+    <rPh sb="12" eb="14">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイマーがサンショウコードを壊す為にエネルギーを解放する時の音</t>
+    <rPh sb="14" eb="15">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイマーがコードを突いた時に発生する音</t>
+    <rPh sb="9" eb="10">
+      <t>ツツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>se_swim.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>se_code_normal.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>se_code_error.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>se_signal.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>se_energy_store.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>se_energy_release.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0秒</t>
+    <rPh sb="3" eb="4">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージを選んだ時やリトライを選択など物事を決める時の音</t>
+    <rPh sb="5" eb="6">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モノゴト</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>se_game_start.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>se_select.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>se_cancel.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>se_decided.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルからゲームスタートする時のSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクロール音</t>
+    <rPh sb="5" eb="6">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージを選ぶ時や遊び方表のページを移動する時に鳴る音</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.5秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセル音</t>
+    <rPh sb="5" eb="6">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定したものをキャンセルした時や戻る時の音</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定音</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージを選んだ時やリトライを選択など物事を決める時の音</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイマーが泳いでいる時、泡が出る音</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突く音</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイマーがコードを突いた時に発生する音</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号のエフェクトがエラーコードに到達した時に発生する音</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号の発生音</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号がコードの上を走るように流れる音</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイマーがパワーシェルを消費してエネルギーをチャージする音</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイマーがサンショウコードを壊す為にエネルギーを解放する時の音</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定：https://www.springin.org/sound-stock/category/system/</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセル-15：https://umipla.com/soundeffect/4388</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぴちょん単発：https://www.springin.org/sound-stock/category/environment/</t>
+    <rPh sb="4" eb="6">
+      <t>タンパツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：https://soundeffect-lab.info/sound/various/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電子ルーレット停止ボタンを押す：https://soundeffect-lab.info/sound/button/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電子ルーレットの出目が点滅：https://soundeffect-lab.info/sound/button/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字送りaループ用：https://www.springin.org/sound-stock/category/system/page/2/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーラが溢れる：https://se-factory.net/animegame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大砲２：https://www.springin.org/sound-stock/category/battle/page/4/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEの「ゲームタイトルスタート音」～「エネルギーを解放する音」の項目を追加</t>
+    <rPh sb="32" eb="34">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -717,7 +1187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,6 +1364,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2213,7 +2689,9 @@
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
-      <c r="I19" s="36"/>
+      <c r="I19" s="33">
+        <v>45031</v>
+      </c>
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
@@ -2224,7 +2702,9 @@
       <c r="Q19" s="34"/>
       <c r="R19" s="34"/>
       <c r="S19" s="35"/>
-      <c r="T19" s="29"/>
+      <c r="T19" s="29" t="s">
+        <v>5</v>
+      </c>
       <c r="U19" s="29"/>
       <c r="V19" s="29"/>
       <c r="W19" s="29"/>
@@ -2232,7 +2712,9 @@
       <c r="Y19" s="29"/>
       <c r="Z19" s="29"/>
       <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
+      <c r="AB19" s="29" t="s">
+        <v>12</v>
+      </c>
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="29"/>
@@ -2247,7 +2729,9 @@
       <c r="AN19" s="29"/>
       <c r="AO19" s="29"/>
       <c r="AP19" s="29"/>
-      <c r="AQ19" s="29"/>
+      <c r="AQ19" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="AR19" s="29"/>
       <c r="AS19" s="29"/>
       <c r="AT19" s="29"/>
@@ -2287,7 +2771,9 @@
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="19"/>
-      <c r="I20" s="36"/>
+      <c r="I20" s="33">
+        <v>45031</v>
+      </c>
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
@@ -2298,7 +2784,9 @@
       <c r="Q20" s="34"/>
       <c r="R20" s="34"/>
       <c r="S20" s="35"/>
-      <c r="T20" s="29"/>
+      <c r="T20" s="29" t="s">
+        <v>5</v>
+      </c>
       <c r="U20" s="29"/>
       <c r="V20" s="29"/>
       <c r="W20" s="29"/>
@@ -2306,7 +2794,9 @@
       <c r="Y20" s="29"/>
       <c r="Z20" s="29"/>
       <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
+      <c r="AB20" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="AC20" s="29"/>
       <c r="AD20" s="29"/>
       <c r="AE20" s="29"/>
@@ -2321,7 +2811,9 @@
       <c r="AN20" s="29"/>
       <c r="AO20" s="29"/>
       <c r="AP20" s="29"/>
-      <c r="AQ20" s="29"/>
+      <c r="AQ20" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="AR20" s="29"/>
       <c r="AS20" s="29"/>
       <c r="AT20" s="29"/>
@@ -3471,7 +3963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EFD6AD-BC50-4081-B4E6-0E5707F89605}">
   <dimension ref="A1:CD51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -4039,7 +4531,9 @@
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="19"/>
-      <c r="I14" s="38"/>
+      <c r="I14" s="38" t="s">
+        <v>26</v>
+      </c>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
@@ -4052,7 +4546,9 @@
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
       <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
+      <c r="V14" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="W14" s="38"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -4080,7 +4576,9 @@
       <c r="AU14" s="38"/>
       <c r="AV14" s="38"/>
       <c r="AW14" s="38"/>
-      <c r="AX14" s="38"/>
+      <c r="AX14" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="AY14" s="38"/>
       <c r="AZ14" s="38"/>
       <c r="BA14" s="38"/>
@@ -4092,13 +4590,17 @@
       <c r="BG14" s="38"/>
       <c r="BH14" s="38"/>
       <c r="BI14" s="38"/>
-      <c r="BJ14" s="38"/>
+      <c r="BJ14" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="BK14" s="38"/>
       <c r="BL14" s="38"/>
       <c r="BM14" s="38"/>
       <c r="BN14" s="38"/>
       <c r="BO14" s="38"/>
-      <c r="BP14" s="38"/>
+      <c r="BP14" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="BQ14" s="38"/>
       <c r="BR14" s="38"/>
       <c r="BS14" s="38"/>
@@ -4122,7 +4624,9 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
-      <c r="I15" s="37"/>
+      <c r="I15" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
@@ -4135,7 +4639,9 @@
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
       <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
+      <c r="V15" s="37" t="s">
+        <v>37</v>
+      </c>
       <c r="W15" s="37"/>
       <c r="X15" s="37"/>
       <c r="Y15" s="37"/>
@@ -4163,7 +4669,9 @@
       <c r="AU15" s="37"/>
       <c r="AV15" s="37"/>
       <c r="AW15" s="37"/>
-      <c r="AX15" s="37"/>
+      <c r="AX15" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="AY15" s="37"/>
       <c r="AZ15" s="37"/>
       <c r="BA15" s="37"/>
@@ -4175,13 +4683,17 @@
       <c r="BG15" s="37"/>
       <c r="BH15" s="37"/>
       <c r="BI15" s="37"/>
-      <c r="BJ15" s="37"/>
-      <c r="BK15" s="37"/>
-      <c r="BL15" s="37"/>
-      <c r="BM15" s="37"/>
-      <c r="BN15" s="37"/>
-      <c r="BO15" s="37"/>
-      <c r="BP15" s="37"/>
+      <c r="BJ15" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK15" s="56"/>
+      <c r="BL15" s="56"/>
+      <c r="BM15" s="56"/>
+      <c r="BN15" s="56"/>
+      <c r="BO15" s="57"/>
+      <c r="BP15" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="BQ15" s="37"/>
       <c r="BR15" s="37"/>
       <c r="BS15" s="37"/>
@@ -4205,7 +4717,9 @@
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="19"/>
-      <c r="I16" s="55"/>
+      <c r="I16" s="55" t="s">
+        <v>39</v>
+      </c>
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
       <c r="L16" s="56"/>
@@ -4218,7 +4732,9 @@
       <c r="S16" s="56"/>
       <c r="T16" s="56"/>
       <c r="U16" s="57"/>
-      <c r="V16" s="55"/>
+      <c r="V16" s="55" t="s">
+        <v>40</v>
+      </c>
       <c r="W16" s="56"/>
       <c r="X16" s="56"/>
       <c r="Y16" s="56"/>
@@ -4246,7 +4762,9 @@
       <c r="AU16" s="56"/>
       <c r="AV16" s="56"/>
       <c r="AW16" s="57"/>
-      <c r="AX16" s="55"/>
+      <c r="AX16" s="55" t="s">
+        <v>61</v>
+      </c>
       <c r="AY16" s="56"/>
       <c r="AZ16" s="56"/>
       <c r="BA16" s="56"/>
@@ -4258,13 +4776,17 @@
       <c r="BG16" s="56"/>
       <c r="BH16" s="56"/>
       <c r="BI16" s="57"/>
-      <c r="BJ16" s="55"/>
+      <c r="BJ16" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="BK16" s="56"/>
       <c r="BL16" s="56"/>
       <c r="BM16" s="56"/>
       <c r="BN16" s="56"/>
       <c r="BO16" s="57"/>
-      <c r="BP16" s="56"/>
+      <c r="BP16" s="56" t="s">
+        <v>66</v>
+      </c>
       <c r="BQ16" s="56"/>
       <c r="BR16" s="56"/>
       <c r="BS16" s="56"/>
@@ -4288,7 +4810,9 @@
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
-      <c r="I17" s="55"/>
+      <c r="I17" s="55" t="s">
+        <v>41</v>
+      </c>
       <c r="J17" s="56"/>
       <c r="K17" s="56"/>
       <c r="L17" s="56"/>
@@ -4301,7 +4825,9 @@
       <c r="S17" s="56"/>
       <c r="T17" s="56"/>
       <c r="U17" s="57"/>
-      <c r="V17" s="55"/>
+      <c r="V17" s="55" t="s">
+        <v>63</v>
+      </c>
       <c r="W17" s="56"/>
       <c r="X17" s="56"/>
       <c r="Y17" s="56"/>
@@ -4329,7 +4855,9 @@
       <c r="AU17" s="56"/>
       <c r="AV17" s="56"/>
       <c r="AW17" s="57"/>
-      <c r="AX17" s="55"/>
+      <c r="AX17" s="55" t="s">
+        <v>38</v>
+      </c>
       <c r="AY17" s="56"/>
       <c r="AZ17" s="56"/>
       <c r="BA17" s="56"/>
@@ -4341,13 +4869,17 @@
       <c r="BG17" s="56"/>
       <c r="BH17" s="56"/>
       <c r="BI17" s="57"/>
-      <c r="BJ17" s="55"/>
+      <c r="BJ17" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="BK17" s="56"/>
       <c r="BL17" s="56"/>
       <c r="BM17" s="56"/>
       <c r="BN17" s="56"/>
       <c r="BO17" s="57"/>
-      <c r="BP17" s="56"/>
+      <c r="BP17" s="56" t="s">
+        <v>67</v>
+      </c>
       <c r="BQ17" s="56"/>
       <c r="BR17" s="56"/>
       <c r="BS17" s="56"/>
@@ -4371,7 +4903,9 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="19"/>
-      <c r="I18" s="55"/>
+      <c r="I18" s="55" t="s">
+        <v>42</v>
+      </c>
       <c r="J18" s="56"/>
       <c r="K18" s="56"/>
       <c r="L18" s="56"/>
@@ -4384,7 +4918,9 @@
       <c r="S18" s="56"/>
       <c r="T18" s="56"/>
       <c r="U18" s="57"/>
-      <c r="V18" s="55"/>
+      <c r="V18" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="W18" s="56"/>
       <c r="X18" s="56"/>
       <c r="Y18" s="56"/>
@@ -4412,7 +4948,9 @@
       <c r="AU18" s="56"/>
       <c r="AV18" s="56"/>
       <c r="AW18" s="57"/>
-      <c r="AX18" s="55"/>
+      <c r="AX18" s="55" t="s">
+        <v>38</v>
+      </c>
       <c r="AY18" s="56"/>
       <c r="AZ18" s="56"/>
       <c r="BA18" s="56"/>
@@ -4424,13 +4962,17 @@
       <c r="BG18" s="56"/>
       <c r="BH18" s="56"/>
       <c r="BI18" s="57"/>
-      <c r="BJ18" s="55"/>
+      <c r="BJ18" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="BK18" s="56"/>
       <c r="BL18" s="56"/>
       <c r="BM18" s="56"/>
       <c r="BN18" s="56"/>
       <c r="BO18" s="57"/>
-      <c r="BP18" s="56"/>
+      <c r="BP18" s="55" t="s">
+        <v>55</v>
+      </c>
       <c r="BQ18" s="56"/>
       <c r="BR18" s="56"/>
       <c r="BS18" s="56"/>
@@ -4454,48 +4996,54 @@
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="56"/>
-      <c r="AQ19" s="56"/>
-      <c r="AR19" s="56"/>
-      <c r="AS19" s="56"/>
-      <c r="AT19" s="56"/>
-      <c r="AU19" s="56"/>
-      <c r="AV19" s="56"/>
-      <c r="AW19" s="57"/>
-      <c r="AX19" s="55"/>
+      <c r="I19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="21"/>
+      <c r="AM19" s="21"/>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="21"/>
+      <c r="AP19" s="21"/>
+      <c r="AQ19" s="21"/>
+      <c r="AR19" s="21"/>
+      <c r="AS19" s="21"/>
+      <c r="AT19" s="21"/>
+      <c r="AU19" s="21"/>
+      <c r="AV19" s="21"/>
+      <c r="AW19" s="22"/>
+      <c r="AX19" s="55" t="s">
+        <v>38</v>
+      </c>
       <c r="AY19" s="56"/>
       <c r="AZ19" s="56"/>
       <c r="BA19" s="56"/>
@@ -4507,27 +5055,31 @@
       <c r="BG19" s="56"/>
       <c r="BH19" s="56"/>
       <c r="BI19" s="57"/>
-      <c r="BJ19" s="55"/>
-      <c r="BK19" s="56"/>
-      <c r="BL19" s="56"/>
-      <c r="BM19" s="56"/>
-      <c r="BN19" s="56"/>
-      <c r="BO19" s="57"/>
-      <c r="BP19" s="56"/>
-      <c r="BQ19" s="56"/>
-      <c r="BR19" s="56"/>
-      <c r="BS19" s="56"/>
-      <c r="BT19" s="56"/>
-      <c r="BU19" s="56"/>
-      <c r="BV19" s="56"/>
-      <c r="BW19" s="56"/>
-      <c r="BX19" s="56"/>
-      <c r="BY19" s="56"/>
-      <c r="BZ19" s="56"/>
-      <c r="CA19" s="56"/>
-      <c r="CB19" s="56"/>
-      <c r="CC19" s="56"/>
-      <c r="CD19" s="57"/>
+      <c r="BJ19" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK19" s="21"/>
+      <c r="BL19" s="21"/>
+      <c r="BM19" s="21"/>
+      <c r="BN19" s="21"/>
+      <c r="BO19" s="22"/>
+      <c r="BP19" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ19" s="21"/>
+      <c r="BR19" s="21"/>
+      <c r="BS19" s="21"/>
+      <c r="BT19" s="21"/>
+      <c r="BU19" s="21"/>
+      <c r="BV19" s="21"/>
+      <c r="BW19" s="21"/>
+      <c r="BX19" s="21"/>
+      <c r="BY19" s="21"/>
+      <c r="BZ19" s="21"/>
+      <c r="CA19" s="21"/>
+      <c r="CB19" s="21"/>
+      <c r="CC19" s="21"/>
+      <c r="CD19" s="22"/>
     </row>
     <row r="20" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="17"/>
@@ -4537,80 +5089,90 @@
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="19"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="18"/>
-      <c r="AM20" s="18"/>
-      <c r="AN20" s="18"/>
-      <c r="AO20" s="18"/>
-      <c r="AP20" s="18"/>
-      <c r="AQ20" s="18"/>
-      <c r="AR20" s="18"/>
-      <c r="AS20" s="18"/>
-      <c r="AT20" s="18"/>
-      <c r="AU20" s="18"/>
-      <c r="AV20" s="18"/>
-      <c r="AW20" s="19"/>
-      <c r="AX20" s="17"/>
-      <c r="AY20" s="18"/>
-      <c r="AZ20" s="18"/>
-      <c r="BA20" s="18"/>
-      <c r="BB20" s="18"/>
-      <c r="BC20" s="18"/>
-      <c r="BD20" s="18"/>
-      <c r="BE20" s="18"/>
-      <c r="BF20" s="18"/>
-      <c r="BG20" s="18"/>
-      <c r="BH20" s="18"/>
-      <c r="BI20" s="19"/>
-      <c r="BJ20" s="17"/>
-      <c r="BK20" s="18"/>
-      <c r="BL20" s="18"/>
-      <c r="BM20" s="18"/>
-      <c r="BN20" s="18"/>
-      <c r="BO20" s="19"/>
-      <c r="BP20" s="18"/>
-      <c r="BQ20" s="18"/>
-      <c r="BR20" s="18"/>
-      <c r="BS20" s="18"/>
-      <c r="BT20" s="18"/>
-      <c r="BU20" s="18"/>
-      <c r="BV20" s="18"/>
-      <c r="BW20" s="18"/>
-      <c r="BX20" s="18"/>
-      <c r="BY20" s="18"/>
-      <c r="BZ20" s="18"/>
-      <c r="CA20" s="18"/>
-      <c r="CB20" s="18"/>
-      <c r="CC20" s="18"/>
-      <c r="CD20" s="19"/>
+      <c r="I20" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="56"/>
+      <c r="AQ20" s="56"/>
+      <c r="AR20" s="56"/>
+      <c r="AS20" s="56"/>
+      <c r="AT20" s="56"/>
+      <c r="AU20" s="56"/>
+      <c r="AV20" s="56"/>
+      <c r="AW20" s="57"/>
+      <c r="AX20" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY20" s="56"/>
+      <c r="AZ20" s="56"/>
+      <c r="BA20" s="56"/>
+      <c r="BB20" s="56"/>
+      <c r="BC20" s="56"/>
+      <c r="BD20" s="56"/>
+      <c r="BE20" s="56"/>
+      <c r="BF20" s="56"/>
+      <c r="BG20" s="56"/>
+      <c r="BH20" s="56"/>
+      <c r="BI20" s="57"/>
+      <c r="BJ20" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK20" s="56"/>
+      <c r="BL20" s="56"/>
+      <c r="BM20" s="56"/>
+      <c r="BN20" s="56"/>
+      <c r="BO20" s="57"/>
+      <c r="BP20" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="BQ20" s="56"/>
+      <c r="BR20" s="56"/>
+      <c r="BS20" s="56"/>
+      <c r="BT20" s="56"/>
+      <c r="BU20" s="56"/>
+      <c r="BV20" s="56"/>
+      <c r="BW20" s="56"/>
+      <c r="BX20" s="56"/>
+      <c r="BY20" s="56"/>
+      <c r="BZ20" s="56"/>
+      <c r="CA20" s="56"/>
+      <c r="CB20" s="56"/>
+      <c r="CC20" s="56"/>
+      <c r="CD20" s="57"/>
     </row>
     <row r="21" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="20"/>
@@ -4620,7 +5182,9 @@
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
-      <c r="I21" s="55"/>
+      <c r="I21" s="55" t="s">
+        <v>43</v>
+      </c>
       <c r="J21" s="56"/>
       <c r="K21" s="56"/>
       <c r="L21" s="56"/>
@@ -4633,7 +5197,9 @@
       <c r="S21" s="56"/>
       <c r="T21" s="56"/>
       <c r="U21" s="57"/>
-      <c r="V21" s="55"/>
+      <c r="V21" s="55" t="s">
+        <v>48</v>
+      </c>
       <c r="W21" s="56"/>
       <c r="X21" s="56"/>
       <c r="Y21" s="56"/>
@@ -4661,7 +5227,9 @@
       <c r="AU21" s="56"/>
       <c r="AV21" s="56"/>
       <c r="AW21" s="57"/>
-      <c r="AX21" s="55"/>
+      <c r="AX21" s="55" t="s">
+        <v>38</v>
+      </c>
       <c r="AY21" s="56"/>
       <c r="AZ21" s="56"/>
       <c r="BA21" s="56"/>
@@ -4673,13 +5241,17 @@
       <c r="BG21" s="56"/>
       <c r="BH21" s="56"/>
       <c r="BI21" s="57"/>
-      <c r="BJ21" s="55"/>
+      <c r="BJ21" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="BK21" s="56"/>
       <c r="BL21" s="56"/>
       <c r="BM21" s="56"/>
       <c r="BN21" s="56"/>
       <c r="BO21" s="57"/>
-      <c r="BP21" s="55"/>
+      <c r="BP21" s="55" t="s">
+        <v>58</v>
+      </c>
       <c r="BQ21" s="56"/>
       <c r="BR21" s="56"/>
       <c r="BS21" s="56"/>
@@ -4703,80 +5275,90 @@
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="19"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="21"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="21"/>
-      <c r="AJ22" s="21"/>
-      <c r="AK22" s="21"/>
-      <c r="AL22" s="21"/>
-      <c r="AM22" s="21"/>
-      <c r="AN22" s="21"/>
-      <c r="AO22" s="21"/>
-      <c r="AP22" s="21"/>
-      <c r="AQ22" s="21"/>
-      <c r="AR22" s="21"/>
-      <c r="AS22" s="21"/>
-      <c r="AT22" s="21"/>
-      <c r="AU22" s="21"/>
-      <c r="AV22" s="21"/>
-      <c r="AW22" s="22"/>
-      <c r="AX22" s="20"/>
-      <c r="AY22" s="21"/>
-      <c r="AZ22" s="21"/>
-      <c r="BA22" s="21"/>
-      <c r="BB22" s="21"/>
-      <c r="BC22" s="21"/>
-      <c r="BD22" s="21"/>
-      <c r="BE22" s="21"/>
-      <c r="BF22" s="21"/>
-      <c r="BG22" s="21"/>
-      <c r="BH22" s="21"/>
-      <c r="BI22" s="22"/>
-      <c r="BJ22" s="20"/>
-      <c r="BK22" s="21"/>
-      <c r="BL22" s="21"/>
-      <c r="BM22" s="21"/>
-      <c r="BN22" s="21"/>
-      <c r="BO22" s="22"/>
-      <c r="BP22" s="20"/>
-      <c r="BQ22" s="21"/>
-      <c r="BR22" s="21"/>
-      <c r="BS22" s="21"/>
-      <c r="BT22" s="21"/>
-      <c r="BU22" s="21"/>
-      <c r="BV22" s="21"/>
-      <c r="BW22" s="21"/>
-      <c r="BX22" s="21"/>
-      <c r="BY22" s="21"/>
-      <c r="BZ22" s="21"/>
-      <c r="CA22" s="21"/>
-      <c r="CB22" s="21"/>
-      <c r="CC22" s="21"/>
-      <c r="CD22" s="22"/>
+      <c r="I22" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="56"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="56"/>
+      <c r="AP22" s="56"/>
+      <c r="AQ22" s="56"/>
+      <c r="AR22" s="56"/>
+      <c r="AS22" s="56"/>
+      <c r="AT22" s="56"/>
+      <c r="AU22" s="56"/>
+      <c r="AV22" s="56"/>
+      <c r="AW22" s="57"/>
+      <c r="AX22" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY22" s="56"/>
+      <c r="AZ22" s="56"/>
+      <c r="BA22" s="56"/>
+      <c r="BB22" s="56"/>
+      <c r="BC22" s="56"/>
+      <c r="BD22" s="56"/>
+      <c r="BE22" s="56"/>
+      <c r="BF22" s="56"/>
+      <c r="BG22" s="56"/>
+      <c r="BH22" s="56"/>
+      <c r="BI22" s="57"/>
+      <c r="BJ22" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK22" s="56"/>
+      <c r="BL22" s="56"/>
+      <c r="BM22" s="56"/>
+      <c r="BN22" s="56"/>
+      <c r="BO22" s="57"/>
+      <c r="BP22" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="BQ22" s="56"/>
+      <c r="BR22" s="56"/>
+      <c r="BS22" s="56"/>
+      <c r="BT22" s="56"/>
+      <c r="BU22" s="56"/>
+      <c r="BV22" s="56"/>
+      <c r="BW22" s="56"/>
+      <c r="BX22" s="56"/>
+      <c r="BY22" s="56"/>
+      <c r="BZ22" s="56"/>
+      <c r="CA22" s="56"/>
+      <c r="CB22" s="56"/>
+      <c r="CC22" s="56"/>
+      <c r="CD22" s="57"/>
     </row>
     <row r="23" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="20"/>
@@ -4786,7 +5368,9 @@
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
-      <c r="I23" s="55"/>
+      <c r="I23" s="55" t="s">
+        <v>45</v>
+      </c>
       <c r="J23" s="56"/>
       <c r="K23" s="56"/>
       <c r="L23" s="56"/>
@@ -4799,7 +5383,9 @@
       <c r="S23" s="56"/>
       <c r="T23" s="56"/>
       <c r="U23" s="57"/>
-      <c r="V23" s="55"/>
+      <c r="V23" s="55" t="s">
+        <v>52</v>
+      </c>
       <c r="W23" s="56"/>
       <c r="X23" s="56"/>
       <c r="Y23" s="56"/>
@@ -4827,7 +5413,9 @@
       <c r="AU23" s="56"/>
       <c r="AV23" s="56"/>
       <c r="AW23" s="57"/>
-      <c r="AX23" s="55"/>
+      <c r="AX23" s="55" t="s">
+        <v>38</v>
+      </c>
       <c r="AY23" s="56"/>
       <c r="AZ23" s="56"/>
       <c r="BA23" s="56"/>
@@ -4839,27 +5427,31 @@
       <c r="BG23" s="56"/>
       <c r="BH23" s="56"/>
       <c r="BI23" s="57"/>
-      <c r="BJ23" s="55"/>
+      <c r="BJ23" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="BK23" s="56"/>
       <c r="BL23" s="56"/>
       <c r="BM23" s="56"/>
       <c r="BN23" s="56"/>
       <c r="BO23" s="57"/>
-      <c r="BP23" s="56"/>
-      <c r="BQ23" s="56"/>
-      <c r="BR23" s="56"/>
-      <c r="BS23" s="56"/>
-      <c r="BT23" s="56"/>
-      <c r="BU23" s="56"/>
-      <c r="BV23" s="56"/>
-      <c r="BW23" s="56"/>
-      <c r="BX23" s="56"/>
-      <c r="BY23" s="56"/>
-      <c r="BZ23" s="56"/>
-      <c r="CA23" s="56"/>
-      <c r="CB23" s="56"/>
-      <c r="CC23" s="56"/>
-      <c r="CD23" s="57"/>
+      <c r="BP23" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="BQ23" s="21"/>
+      <c r="BR23" s="21"/>
+      <c r="BS23" s="21"/>
+      <c r="BT23" s="21"/>
+      <c r="BU23" s="21"/>
+      <c r="BV23" s="21"/>
+      <c r="BW23" s="21"/>
+      <c r="BX23" s="21"/>
+      <c r="BY23" s="21"/>
+      <c r="BZ23" s="21"/>
+      <c r="CA23" s="21"/>
+      <c r="CB23" s="21"/>
+      <c r="CC23" s="21"/>
+      <c r="CD23" s="22"/>
     </row>
     <row r="24" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="17"/>
@@ -5011,21 +5603,21 @@
       <c r="BM25" s="56"/>
       <c r="BN25" s="56"/>
       <c r="BO25" s="57"/>
-      <c r="BP25" s="55"/>
-      <c r="BQ25" s="56"/>
-      <c r="BR25" s="56"/>
-      <c r="BS25" s="56"/>
-      <c r="BT25" s="56"/>
-      <c r="BU25" s="56"/>
-      <c r="BV25" s="56"/>
-      <c r="BW25" s="56"/>
-      <c r="BX25" s="56"/>
-      <c r="BY25" s="56"/>
-      <c r="BZ25" s="56"/>
-      <c r="CA25" s="56"/>
-      <c r="CB25" s="56"/>
-      <c r="CC25" s="56"/>
-      <c r="CD25" s="57"/>
+      <c r="BP25" s="20"/>
+      <c r="BQ25" s="21"/>
+      <c r="BR25" s="21"/>
+      <c r="BS25" s="21"/>
+      <c r="BT25" s="21"/>
+      <c r="BU25" s="21"/>
+      <c r="BV25" s="21"/>
+      <c r="BW25" s="21"/>
+      <c r="BX25" s="21"/>
+      <c r="BY25" s="21"/>
+      <c r="BZ25" s="21"/>
+      <c r="CA25" s="21"/>
+      <c r="CB25" s="21"/>
+      <c r="CC25" s="21"/>
+      <c r="CD25" s="22"/>
     </row>
     <row r="26" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="17"/>
@@ -5201,80 +5793,80 @@
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="19"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="37"/>
-      <c r="AM28" s="37"/>
-      <c r="AN28" s="37"/>
-      <c r="AO28" s="37"/>
-      <c r="AP28" s="37"/>
-      <c r="AQ28" s="37"/>
-      <c r="AR28" s="37"/>
-      <c r="AS28" s="37"/>
-      <c r="AT28" s="37"/>
-      <c r="AU28" s="37"/>
-      <c r="AV28" s="37"/>
-      <c r="AW28" s="37"/>
-      <c r="AX28" s="37"/>
-      <c r="AY28" s="37"/>
-      <c r="AZ28" s="37"/>
-      <c r="BA28" s="37"/>
-      <c r="BB28" s="37"/>
-      <c r="BC28" s="37"/>
-      <c r="BD28" s="37"/>
-      <c r="BE28" s="37"/>
-      <c r="BF28" s="37"/>
-      <c r="BG28" s="37"/>
-      <c r="BH28" s="37"/>
-      <c r="BI28" s="37"/>
-      <c r="BJ28" s="55"/>
-      <c r="BK28" s="56"/>
-      <c r="BL28" s="56"/>
-      <c r="BM28" s="56"/>
-      <c r="BN28" s="56"/>
-      <c r="BO28" s="57"/>
-      <c r="BP28" s="37"/>
-      <c r="BQ28" s="37"/>
-      <c r="BR28" s="37"/>
-      <c r="BS28" s="37"/>
-      <c r="BT28" s="37"/>
-      <c r="BU28" s="37"/>
-      <c r="BV28" s="37"/>
-      <c r="BW28" s="37"/>
-      <c r="BX28" s="37"/>
-      <c r="BY28" s="37"/>
-      <c r="BZ28" s="37"/>
-      <c r="CA28" s="37"/>
-      <c r="CB28" s="37"/>
-      <c r="CC28" s="37"/>
-      <c r="CD28" s="37"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="21"/>
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="21"/>
+      <c r="AK28" s="21"/>
+      <c r="AL28" s="21"/>
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="21"/>
+      <c r="AQ28" s="21"/>
+      <c r="AR28" s="21"/>
+      <c r="AS28" s="21"/>
+      <c r="AT28" s="21"/>
+      <c r="AU28" s="21"/>
+      <c r="AV28" s="21"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="55"/>
+      <c r="AY28" s="56"/>
+      <c r="AZ28" s="56"/>
+      <c r="BA28" s="56"/>
+      <c r="BB28" s="56"/>
+      <c r="BC28" s="56"/>
+      <c r="BD28" s="56"/>
+      <c r="BE28" s="56"/>
+      <c r="BF28" s="56"/>
+      <c r="BG28" s="56"/>
+      <c r="BH28" s="56"/>
+      <c r="BI28" s="57"/>
+      <c r="BJ28" s="20"/>
+      <c r="BK28" s="21"/>
+      <c r="BL28" s="21"/>
+      <c r="BM28" s="21"/>
+      <c r="BN28" s="21"/>
+      <c r="BO28" s="22"/>
+      <c r="BP28" s="20"/>
+      <c r="BQ28" s="21"/>
+      <c r="BR28" s="21"/>
+      <c r="BS28" s="21"/>
+      <c r="BT28" s="21"/>
+      <c r="BU28" s="21"/>
+      <c r="BV28" s="21"/>
+      <c r="BW28" s="21"/>
+      <c r="BX28" s="21"/>
+      <c r="BY28" s="21"/>
+      <c r="BZ28" s="21"/>
+      <c r="CA28" s="21"/>
+      <c r="CB28" s="21"/>
+      <c r="CC28" s="21"/>
+      <c r="CD28" s="22"/>
     </row>
     <row r="29" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="20"/>
@@ -5284,47 +5876,47 @@
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="37"/>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="37"/>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="37"/>
-      <c r="AO29" s="37"/>
-      <c r="AP29" s="37"/>
-      <c r="AQ29" s="37"/>
-      <c r="AR29" s="37"/>
-      <c r="AS29" s="37"/>
-      <c r="AT29" s="37"/>
-      <c r="AU29" s="37"/>
-      <c r="AV29" s="37"/>
-      <c r="AW29" s="37"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="56"/>
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="56"/>
+      <c r="AN29" s="56"/>
+      <c r="AO29" s="56"/>
+      <c r="AP29" s="56"/>
+      <c r="AQ29" s="56"/>
+      <c r="AR29" s="56"/>
+      <c r="AS29" s="56"/>
+      <c r="AT29" s="56"/>
+      <c r="AU29" s="56"/>
+      <c r="AV29" s="56"/>
+      <c r="AW29" s="57"/>
       <c r="AX29" s="55"/>
       <c r="AY29" s="56"/>
       <c r="AZ29" s="56"/>
@@ -5343,21 +5935,21 @@
       <c r="BM29" s="56"/>
       <c r="BN29" s="56"/>
       <c r="BO29" s="57"/>
-      <c r="BP29" s="37"/>
-      <c r="BQ29" s="37"/>
-      <c r="BR29" s="37"/>
-      <c r="BS29" s="37"/>
-      <c r="BT29" s="37"/>
-      <c r="BU29" s="37"/>
-      <c r="BV29" s="37"/>
-      <c r="BW29" s="37"/>
-      <c r="BX29" s="37"/>
-      <c r="BY29" s="37"/>
-      <c r="BZ29" s="37"/>
-      <c r="CA29" s="37"/>
-      <c r="CB29" s="37"/>
-      <c r="CC29" s="37"/>
-      <c r="CD29" s="37"/>
+      <c r="BP29" s="56"/>
+      <c r="BQ29" s="56"/>
+      <c r="BR29" s="56"/>
+      <c r="BS29" s="56"/>
+      <c r="BT29" s="56"/>
+      <c r="BU29" s="56"/>
+      <c r="BV29" s="56"/>
+      <c r="BW29" s="56"/>
+      <c r="BX29" s="56"/>
+      <c r="BY29" s="56"/>
+      <c r="BZ29" s="56"/>
+      <c r="CA29" s="56"/>
+      <c r="CB29" s="56"/>
+      <c r="CC29" s="56"/>
+      <c r="CD29" s="57"/>
     </row>
     <row r="30" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="17"/>
@@ -5367,80 +5959,80 @@
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="19"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="37"/>
-      <c r="AE30" s="37"/>
-      <c r="AF30" s="37"/>
-      <c r="AG30" s="37"/>
-      <c r="AH30" s="37"/>
-      <c r="AI30" s="37"/>
-      <c r="AJ30" s="37"/>
-      <c r="AK30" s="37"/>
-      <c r="AL30" s="37"/>
-      <c r="AM30" s="37"/>
-      <c r="AN30" s="37"/>
-      <c r="AO30" s="37"/>
-      <c r="AP30" s="37"/>
-      <c r="AQ30" s="37"/>
-      <c r="AR30" s="37"/>
-      <c r="AS30" s="37"/>
-      <c r="AT30" s="37"/>
-      <c r="AU30" s="37"/>
-      <c r="AV30" s="37"/>
-      <c r="AW30" s="37"/>
-      <c r="AX30" s="37"/>
-      <c r="AY30" s="37"/>
-      <c r="AZ30" s="37"/>
-      <c r="BA30" s="37"/>
-      <c r="BB30" s="37"/>
-      <c r="BC30" s="37"/>
-      <c r="BD30" s="37"/>
-      <c r="BE30" s="37"/>
-      <c r="BF30" s="37"/>
-      <c r="BG30" s="37"/>
-      <c r="BH30" s="37"/>
-      <c r="BI30" s="37"/>
-      <c r="BJ30" s="37"/>
-      <c r="BK30" s="37"/>
-      <c r="BL30" s="37"/>
-      <c r="BM30" s="37"/>
-      <c r="BN30" s="37"/>
-      <c r="BO30" s="37"/>
-      <c r="BP30" s="37"/>
-      <c r="BQ30" s="37"/>
-      <c r="BR30" s="37"/>
-      <c r="BS30" s="37"/>
-      <c r="BT30" s="37"/>
-      <c r="BU30" s="37"/>
-      <c r="BV30" s="37"/>
-      <c r="BW30" s="37"/>
-      <c r="BX30" s="37"/>
-      <c r="BY30" s="37"/>
-      <c r="BZ30" s="37"/>
-      <c r="CA30" s="37"/>
-      <c r="CB30" s="37"/>
-      <c r="CC30" s="37"/>
-      <c r="CD30" s="37"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="56"/>
+      <c r="AB30" s="56"/>
+      <c r="AC30" s="56"/>
+      <c r="AD30" s="56"/>
+      <c r="AE30" s="56"/>
+      <c r="AF30" s="56"/>
+      <c r="AG30" s="56"/>
+      <c r="AH30" s="56"/>
+      <c r="AI30" s="56"/>
+      <c r="AJ30" s="56"/>
+      <c r="AK30" s="56"/>
+      <c r="AL30" s="56"/>
+      <c r="AM30" s="56"/>
+      <c r="AN30" s="56"/>
+      <c r="AO30" s="56"/>
+      <c r="AP30" s="56"/>
+      <c r="AQ30" s="56"/>
+      <c r="AR30" s="56"/>
+      <c r="AS30" s="56"/>
+      <c r="AT30" s="56"/>
+      <c r="AU30" s="56"/>
+      <c r="AV30" s="56"/>
+      <c r="AW30" s="57"/>
+      <c r="AX30" s="55"/>
+      <c r="AY30" s="56"/>
+      <c r="AZ30" s="56"/>
+      <c r="BA30" s="56"/>
+      <c r="BB30" s="56"/>
+      <c r="BC30" s="56"/>
+      <c r="BD30" s="56"/>
+      <c r="BE30" s="56"/>
+      <c r="BF30" s="56"/>
+      <c r="BG30" s="56"/>
+      <c r="BH30" s="56"/>
+      <c r="BI30" s="57"/>
+      <c r="BJ30" s="55"/>
+      <c r="BK30" s="56"/>
+      <c r="BL30" s="56"/>
+      <c r="BM30" s="56"/>
+      <c r="BN30" s="56"/>
+      <c r="BO30" s="57"/>
+      <c r="BP30" s="55"/>
+      <c r="BQ30" s="56"/>
+      <c r="BR30" s="56"/>
+      <c r="BS30" s="56"/>
+      <c r="BT30" s="56"/>
+      <c r="BU30" s="56"/>
+      <c r="BV30" s="56"/>
+      <c r="BW30" s="56"/>
+      <c r="BX30" s="56"/>
+      <c r="BY30" s="56"/>
+      <c r="BZ30" s="56"/>
+      <c r="CA30" s="56"/>
+      <c r="CB30" s="56"/>
+      <c r="CC30" s="56"/>
+      <c r="CD30" s="57"/>
     </row>
     <row r="31" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="20"/>
@@ -5450,80 +6042,80 @@
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="37"/>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
-      <c r="AM31" s="37"/>
-      <c r="AN31" s="37"/>
-      <c r="AO31" s="37"/>
-      <c r="AP31" s="37"/>
-      <c r="AQ31" s="37"/>
-      <c r="AR31" s="37"/>
-      <c r="AS31" s="37"/>
-      <c r="AT31" s="37"/>
-      <c r="AU31" s="37"/>
-      <c r="AV31" s="37"/>
-      <c r="AW31" s="37"/>
-      <c r="AX31" s="37"/>
-      <c r="AY31" s="37"/>
-      <c r="AZ31" s="37"/>
-      <c r="BA31" s="37"/>
-      <c r="BB31" s="37"/>
-      <c r="BC31" s="37"/>
-      <c r="BD31" s="37"/>
-      <c r="BE31" s="37"/>
-      <c r="BF31" s="37"/>
-      <c r="BG31" s="37"/>
-      <c r="BH31" s="37"/>
-      <c r="BI31" s="37"/>
-      <c r="BJ31" s="37"/>
-      <c r="BK31" s="37"/>
-      <c r="BL31" s="37"/>
-      <c r="BM31" s="37"/>
-      <c r="BN31" s="37"/>
-      <c r="BO31" s="37"/>
-      <c r="BP31" s="37"/>
-      <c r="BQ31" s="37"/>
-      <c r="BR31" s="37"/>
-      <c r="BS31" s="37"/>
-      <c r="BT31" s="37"/>
-      <c r="BU31" s="37"/>
-      <c r="BV31" s="37"/>
-      <c r="BW31" s="37"/>
-      <c r="BX31" s="37"/>
-      <c r="BY31" s="37"/>
-      <c r="BZ31" s="37"/>
-      <c r="CA31" s="37"/>
-      <c r="CB31" s="37"/>
-      <c r="CC31" s="37"/>
-      <c r="CD31" s="37"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="56"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="56"/>
+      <c r="AJ31" s="56"/>
+      <c r="AK31" s="56"/>
+      <c r="AL31" s="56"/>
+      <c r="AM31" s="56"/>
+      <c r="AN31" s="56"/>
+      <c r="AO31" s="56"/>
+      <c r="AP31" s="56"/>
+      <c r="AQ31" s="56"/>
+      <c r="AR31" s="56"/>
+      <c r="AS31" s="56"/>
+      <c r="AT31" s="56"/>
+      <c r="AU31" s="56"/>
+      <c r="AV31" s="56"/>
+      <c r="AW31" s="57"/>
+      <c r="AX31" s="55"/>
+      <c r="AY31" s="56"/>
+      <c r="AZ31" s="56"/>
+      <c r="BA31" s="56"/>
+      <c r="BB31" s="56"/>
+      <c r="BC31" s="56"/>
+      <c r="BD31" s="56"/>
+      <c r="BE31" s="56"/>
+      <c r="BF31" s="56"/>
+      <c r="BG31" s="56"/>
+      <c r="BH31" s="56"/>
+      <c r="BI31" s="57"/>
+      <c r="BJ31" s="55"/>
+      <c r="BK31" s="56"/>
+      <c r="BL31" s="56"/>
+      <c r="BM31" s="56"/>
+      <c r="BN31" s="56"/>
+      <c r="BO31" s="57"/>
+      <c r="BP31" s="55"/>
+      <c r="BQ31" s="56"/>
+      <c r="BR31" s="56"/>
+      <c r="BS31" s="56"/>
+      <c r="BT31" s="56"/>
+      <c r="BU31" s="56"/>
+      <c r="BV31" s="56"/>
+      <c r="BW31" s="56"/>
+      <c r="BX31" s="56"/>
+      <c r="BY31" s="56"/>
+      <c r="BZ31" s="56"/>
+      <c r="CA31" s="56"/>
+      <c r="CB31" s="56"/>
+      <c r="CC31" s="56"/>
+      <c r="CD31" s="57"/>
     </row>
     <row r="32" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="17"/>
@@ -5533,80 +6125,80 @@
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="19"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="37"/>
-      <c r="AE32" s="37"/>
-      <c r="AF32" s="37"/>
-      <c r="AG32" s="37"/>
-      <c r="AH32" s="37"/>
-      <c r="AI32" s="37"/>
-      <c r="AJ32" s="37"/>
-      <c r="AK32" s="37"/>
-      <c r="AL32" s="37"/>
-      <c r="AM32" s="37"/>
-      <c r="AN32" s="37"/>
-      <c r="AO32" s="37"/>
-      <c r="AP32" s="37"/>
-      <c r="AQ32" s="37"/>
-      <c r="AR32" s="37"/>
-      <c r="AS32" s="37"/>
-      <c r="AT32" s="37"/>
-      <c r="AU32" s="37"/>
-      <c r="AV32" s="37"/>
-      <c r="AW32" s="37"/>
-      <c r="AX32" s="37"/>
-      <c r="AY32" s="37"/>
-      <c r="AZ32" s="37"/>
-      <c r="BA32" s="37"/>
-      <c r="BB32" s="37"/>
-      <c r="BC32" s="37"/>
-      <c r="BD32" s="37"/>
-      <c r="BE32" s="37"/>
-      <c r="BF32" s="37"/>
-      <c r="BG32" s="37"/>
-      <c r="BH32" s="37"/>
-      <c r="BI32" s="37"/>
-      <c r="BJ32" s="37"/>
-      <c r="BK32" s="37"/>
-      <c r="BL32" s="37"/>
-      <c r="BM32" s="37"/>
-      <c r="BN32" s="37"/>
-      <c r="BO32" s="37"/>
-      <c r="BP32" s="37"/>
-      <c r="BQ32" s="37"/>
-      <c r="BR32" s="37"/>
-      <c r="BS32" s="37"/>
-      <c r="BT32" s="37"/>
-      <c r="BU32" s="37"/>
-      <c r="BV32" s="37"/>
-      <c r="BW32" s="37"/>
-      <c r="BX32" s="37"/>
-      <c r="BY32" s="37"/>
-      <c r="BZ32" s="37"/>
-      <c r="CA32" s="37"/>
-      <c r="CB32" s="37"/>
-      <c r="CC32" s="37"/>
-      <c r="CD32" s="37"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="56"/>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="56"/>
+      <c r="AN32" s="56"/>
+      <c r="AO32" s="56"/>
+      <c r="AP32" s="56"/>
+      <c r="AQ32" s="56"/>
+      <c r="AR32" s="56"/>
+      <c r="AS32" s="56"/>
+      <c r="AT32" s="56"/>
+      <c r="AU32" s="56"/>
+      <c r="AV32" s="56"/>
+      <c r="AW32" s="57"/>
+      <c r="AX32" s="55"/>
+      <c r="AY32" s="56"/>
+      <c r="AZ32" s="56"/>
+      <c r="BA32" s="56"/>
+      <c r="BB32" s="56"/>
+      <c r="BC32" s="56"/>
+      <c r="BD32" s="56"/>
+      <c r="BE32" s="56"/>
+      <c r="BF32" s="56"/>
+      <c r="BG32" s="56"/>
+      <c r="BH32" s="56"/>
+      <c r="BI32" s="57"/>
+      <c r="BJ32" s="55"/>
+      <c r="BK32" s="56"/>
+      <c r="BL32" s="56"/>
+      <c r="BM32" s="56"/>
+      <c r="BN32" s="56"/>
+      <c r="BO32" s="57"/>
+      <c r="BP32" s="20"/>
+      <c r="BQ32" s="21"/>
+      <c r="BR32" s="21"/>
+      <c r="BS32" s="21"/>
+      <c r="BT32" s="21"/>
+      <c r="BU32" s="21"/>
+      <c r="BV32" s="21"/>
+      <c r="BW32" s="21"/>
+      <c r="BX32" s="21"/>
+      <c r="BY32" s="21"/>
+      <c r="BZ32" s="21"/>
+      <c r="CA32" s="21"/>
+      <c r="CB32" s="21"/>
+      <c r="CC32" s="21"/>
+      <c r="CD32" s="22"/>
     </row>
     <row r="33" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="20"/>
@@ -5616,80 +6208,80 @@
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="37"/>
-      <c r="AF33" s="37"/>
-      <c r="AG33" s="37"/>
-      <c r="AH33" s="37"/>
-      <c r="AI33" s="37"/>
-      <c r="AJ33" s="37"/>
-      <c r="AK33" s="37"/>
-      <c r="AL33" s="37"/>
-      <c r="AM33" s="37"/>
-      <c r="AN33" s="37"/>
-      <c r="AO33" s="37"/>
-      <c r="AP33" s="37"/>
-      <c r="AQ33" s="37"/>
-      <c r="AR33" s="37"/>
-      <c r="AS33" s="37"/>
-      <c r="AT33" s="37"/>
-      <c r="AU33" s="37"/>
-      <c r="AV33" s="37"/>
-      <c r="AW33" s="37"/>
-      <c r="AX33" s="37"/>
-      <c r="AY33" s="37"/>
-      <c r="AZ33" s="37"/>
-      <c r="BA33" s="37"/>
-      <c r="BB33" s="37"/>
-      <c r="BC33" s="37"/>
-      <c r="BD33" s="37"/>
-      <c r="BE33" s="37"/>
-      <c r="BF33" s="37"/>
-      <c r="BG33" s="37"/>
-      <c r="BH33" s="37"/>
-      <c r="BI33" s="37"/>
-      <c r="BJ33" s="37"/>
-      <c r="BK33" s="37"/>
-      <c r="BL33" s="37"/>
-      <c r="BM33" s="37"/>
-      <c r="BN33" s="37"/>
-      <c r="BO33" s="37"/>
-      <c r="BP33" s="37"/>
-      <c r="BQ33" s="37"/>
-      <c r="BR33" s="37"/>
-      <c r="BS33" s="37"/>
-      <c r="BT33" s="37"/>
-      <c r="BU33" s="37"/>
-      <c r="BV33" s="37"/>
-      <c r="BW33" s="37"/>
-      <c r="BX33" s="37"/>
-      <c r="BY33" s="37"/>
-      <c r="BZ33" s="37"/>
-      <c r="CA33" s="37"/>
-      <c r="CB33" s="37"/>
-      <c r="CC33" s="37"/>
-      <c r="CD33" s="37"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="56"/>
+      <c r="AL33" s="56"/>
+      <c r="AM33" s="56"/>
+      <c r="AN33" s="56"/>
+      <c r="AO33" s="56"/>
+      <c r="AP33" s="56"/>
+      <c r="AQ33" s="56"/>
+      <c r="AR33" s="56"/>
+      <c r="AS33" s="56"/>
+      <c r="AT33" s="56"/>
+      <c r="AU33" s="56"/>
+      <c r="AV33" s="56"/>
+      <c r="AW33" s="57"/>
+      <c r="AX33" s="55"/>
+      <c r="AY33" s="56"/>
+      <c r="AZ33" s="56"/>
+      <c r="BA33" s="56"/>
+      <c r="BB33" s="56"/>
+      <c r="BC33" s="56"/>
+      <c r="BD33" s="56"/>
+      <c r="BE33" s="56"/>
+      <c r="BF33" s="56"/>
+      <c r="BG33" s="56"/>
+      <c r="BH33" s="56"/>
+      <c r="BI33" s="57"/>
+      <c r="BJ33" s="55"/>
+      <c r="BK33" s="56"/>
+      <c r="BL33" s="56"/>
+      <c r="BM33" s="56"/>
+      <c r="BN33" s="56"/>
+      <c r="BO33" s="57"/>
+      <c r="BP33" s="55"/>
+      <c r="BQ33" s="56"/>
+      <c r="BR33" s="56"/>
+      <c r="BS33" s="56"/>
+      <c r="BT33" s="56"/>
+      <c r="BU33" s="56"/>
+      <c r="BV33" s="56"/>
+      <c r="BW33" s="56"/>
+      <c r="BX33" s="56"/>
+      <c r="BY33" s="56"/>
+      <c r="BZ33" s="56"/>
+      <c r="CA33" s="56"/>
+      <c r="CB33" s="56"/>
+      <c r="CC33" s="56"/>
+      <c r="CD33" s="57"/>
     </row>
     <row r="34" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="17"/>
@@ -5699,80 +6291,80 @@
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="19"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="37"/>
-      <c r="AF34" s="37"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="37"/>
-      <c r="AI34" s="37"/>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="37"/>
-      <c r="AL34" s="37"/>
-      <c r="AM34" s="37"/>
-      <c r="AN34" s="37"/>
-      <c r="AO34" s="37"/>
-      <c r="AP34" s="37"/>
-      <c r="AQ34" s="37"/>
-      <c r="AR34" s="37"/>
-      <c r="AS34" s="37"/>
-      <c r="AT34" s="37"/>
-      <c r="AU34" s="37"/>
-      <c r="AV34" s="37"/>
-      <c r="AW34" s="37"/>
-      <c r="AX34" s="37"/>
-      <c r="AY34" s="37"/>
-      <c r="AZ34" s="37"/>
-      <c r="BA34" s="37"/>
-      <c r="BB34" s="37"/>
-      <c r="BC34" s="37"/>
-      <c r="BD34" s="37"/>
-      <c r="BE34" s="37"/>
-      <c r="BF34" s="37"/>
-      <c r="BG34" s="37"/>
-      <c r="BH34" s="37"/>
-      <c r="BI34" s="37"/>
-      <c r="BJ34" s="37"/>
-      <c r="BK34" s="37"/>
-      <c r="BL34" s="37"/>
-      <c r="BM34" s="37"/>
-      <c r="BN34" s="37"/>
-      <c r="BO34" s="37"/>
-      <c r="BP34" s="37"/>
-      <c r="BQ34" s="37"/>
-      <c r="BR34" s="37"/>
-      <c r="BS34" s="37"/>
-      <c r="BT34" s="37"/>
-      <c r="BU34" s="37"/>
-      <c r="BV34" s="37"/>
-      <c r="BW34" s="37"/>
-      <c r="BX34" s="37"/>
-      <c r="BY34" s="37"/>
-      <c r="BZ34" s="37"/>
-      <c r="CA34" s="37"/>
-      <c r="CB34" s="37"/>
-      <c r="CC34" s="37"/>
-      <c r="CD34" s="37"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="56"/>
+      <c r="AB34" s="56"/>
+      <c r="AC34" s="56"/>
+      <c r="AD34" s="56"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="56"/>
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="56"/>
+      <c r="AP34" s="56"/>
+      <c r="AQ34" s="56"/>
+      <c r="AR34" s="56"/>
+      <c r="AS34" s="56"/>
+      <c r="AT34" s="56"/>
+      <c r="AU34" s="56"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="57"/>
+      <c r="AX34" s="55"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
+      <c r="BB34" s="56"/>
+      <c r="BC34" s="56"/>
+      <c r="BD34" s="56"/>
+      <c r="BE34" s="56"/>
+      <c r="BF34" s="56"/>
+      <c r="BG34" s="56"/>
+      <c r="BH34" s="56"/>
+      <c r="BI34" s="57"/>
+      <c r="BJ34" s="55"/>
+      <c r="BK34" s="56"/>
+      <c r="BL34" s="56"/>
+      <c r="BM34" s="56"/>
+      <c r="BN34" s="56"/>
+      <c r="BO34" s="57"/>
+      <c r="BP34" s="55"/>
+      <c r="BQ34" s="56"/>
+      <c r="BR34" s="56"/>
+      <c r="BS34" s="56"/>
+      <c r="BT34" s="56"/>
+      <c r="BU34" s="56"/>
+      <c r="BV34" s="56"/>
+      <c r="BW34" s="56"/>
+      <c r="BX34" s="56"/>
+      <c r="BY34" s="56"/>
+      <c r="BZ34" s="56"/>
+      <c r="CA34" s="56"/>
+      <c r="CB34" s="56"/>
+      <c r="CC34" s="56"/>
+      <c r="CD34" s="57"/>
     </row>
     <row r="35" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="20"/>
@@ -6884,7 +7476,6 @@
     <mergeCell ref="AX31:BI31"/>
     <mergeCell ref="BJ31:BO31"/>
     <mergeCell ref="BP31:CD31"/>
-    <mergeCell ref="BP45:CD45"/>
     <mergeCell ref="I44:U44"/>
     <mergeCell ref="V44:AW44"/>
     <mergeCell ref="AX44:BI44"/>
@@ -6921,6 +7512,7 @@
     <mergeCell ref="V45:AW45"/>
     <mergeCell ref="AX45:BI45"/>
     <mergeCell ref="BJ45:BO45"/>
+    <mergeCell ref="BP45:CD45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -6937,7 +7529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC931E72-A0E3-46CC-9347-9202F340895C}">
   <dimension ref="A1:CD287"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -7518,7 +8110,9 @@
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
       <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
+      <c r="V14" s="38" t="s">
+        <v>68</v>
+      </c>
       <c r="W14" s="38"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -7546,7 +8140,9 @@
       <c r="AU14" s="38"/>
       <c r="AV14" s="38"/>
       <c r="AW14" s="38"/>
-      <c r="AX14" s="38"/>
+      <c r="AX14" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="AY14" s="38"/>
       <c r="AZ14" s="38"/>
       <c r="BA14" s="38"/>
@@ -7558,13 +8154,17 @@
       <c r="BG14" s="38"/>
       <c r="BH14" s="38"/>
       <c r="BI14" s="38"/>
-      <c r="BJ14" s="38"/>
+      <c r="BJ14" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="BK14" s="38"/>
       <c r="BL14" s="38"/>
       <c r="BM14" s="38"/>
       <c r="BN14" s="38"/>
       <c r="BO14" s="38"/>
-      <c r="BP14" s="38"/>
+      <c r="BP14" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="BQ14" s="38"/>
       <c r="BR14" s="38"/>
       <c r="BS14" s="38"/>
@@ -7769,67 +8369,69 @@
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
       <c r="U17" s="37"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="37"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="37"/>
-      <c r="AN17" s="37"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="37"/>
-      <c r="AS17" s="37"/>
-      <c r="AT17" s="37"/>
-      <c r="AU17" s="37"/>
-      <c r="AV17" s="37"/>
-      <c r="AW17" s="37"/>
-      <c r="AX17" s="37"/>
-      <c r="AY17" s="37"/>
-      <c r="AZ17" s="37"/>
-      <c r="BA17" s="37"/>
-      <c r="BB17" s="37"/>
-      <c r="BC17" s="37"/>
-      <c r="BD17" s="37"/>
-      <c r="BE17" s="37"/>
-      <c r="BF17" s="37"/>
-      <c r="BG17" s="37"/>
-      <c r="BH17" s="37"/>
-      <c r="BI17" s="37"/>
-      <c r="BJ17" s="37"/>
-      <c r="BK17" s="37"/>
-      <c r="BL17" s="37"/>
-      <c r="BM17" s="37"/>
-      <c r="BN17" s="37"/>
-      <c r="BO17" s="37"/>
-      <c r="BP17" s="37"/>
-      <c r="BQ17" s="37"/>
-      <c r="BR17" s="37"/>
-      <c r="BS17" s="37"/>
-      <c r="BT17" s="37"/>
-      <c r="BU17" s="37"/>
-      <c r="BV17" s="37"/>
-      <c r="BW17" s="37"/>
-      <c r="BX17" s="37"/>
-      <c r="BY17" s="37"/>
-      <c r="BZ17" s="37"/>
-      <c r="CA17" s="37"/>
-      <c r="CB17" s="37"/>
-      <c r="CC17" s="37"/>
-      <c r="CD17" s="37"/>
+      <c r="V17" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="60"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="60"/>
+      <c r="AJ17" s="60"/>
+      <c r="AK17" s="60"/>
+      <c r="AL17" s="60"/>
+      <c r="AM17" s="60"/>
+      <c r="AN17" s="60"/>
+      <c r="AO17" s="60"/>
+      <c r="AP17" s="60"/>
+      <c r="AQ17" s="60"/>
+      <c r="AR17" s="60"/>
+      <c r="AS17" s="60"/>
+      <c r="AT17" s="60"/>
+      <c r="AU17" s="60"/>
+      <c r="AV17" s="60"/>
+      <c r="AW17" s="60"/>
+      <c r="AX17" s="60"/>
+      <c r="AY17" s="60"/>
+      <c r="AZ17" s="60"/>
+      <c r="BA17" s="60"/>
+      <c r="BB17" s="60"/>
+      <c r="BC17" s="60"/>
+      <c r="BD17" s="60"/>
+      <c r="BE17" s="60"/>
+      <c r="BF17" s="60"/>
+      <c r="BG17" s="60"/>
+      <c r="BH17" s="60"/>
+      <c r="BI17" s="60"/>
+      <c r="BJ17" s="60"/>
+      <c r="BK17" s="60"/>
+      <c r="BL17" s="60"/>
+      <c r="BM17" s="60"/>
+      <c r="BN17" s="60"/>
+      <c r="BO17" s="60"/>
+      <c r="BP17" s="60"/>
+      <c r="BQ17" s="60"/>
+      <c r="BR17" s="60"/>
+      <c r="BS17" s="60"/>
+      <c r="BT17" s="60"/>
+      <c r="BU17" s="60"/>
+      <c r="BV17" s="60"/>
+      <c r="BW17" s="60"/>
+      <c r="BX17" s="60"/>
+      <c r="BY17" s="60"/>
+      <c r="BZ17" s="60"/>
+      <c r="CA17" s="60"/>
+      <c r="CB17" s="60"/>
+      <c r="CC17" s="60"/>
+      <c r="CD17" s="60"/>
     </row>
     <row r="18" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="17"/>
@@ -7852,67 +8454,67 @@
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
       <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="37"/>
-      <c r="AN18" s="37"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="37"/>
-      <c r="AS18" s="37"/>
-      <c r="AT18" s="37"/>
-      <c r="AU18" s="37"/>
-      <c r="AV18" s="37"/>
-      <c r="AW18" s="37"/>
-      <c r="AX18" s="37"/>
-      <c r="AY18" s="37"/>
-      <c r="AZ18" s="37"/>
-      <c r="BA18" s="37"/>
-      <c r="BB18" s="37"/>
-      <c r="BC18" s="37"/>
-      <c r="BD18" s="37"/>
-      <c r="BE18" s="37"/>
-      <c r="BF18" s="37"/>
-      <c r="BG18" s="37"/>
-      <c r="BH18" s="37"/>
-      <c r="BI18" s="37"/>
-      <c r="BJ18" s="37"/>
-      <c r="BK18" s="37"/>
-      <c r="BL18" s="37"/>
-      <c r="BM18" s="37"/>
-      <c r="BN18" s="37"/>
-      <c r="BO18" s="37"/>
-      <c r="BP18" s="37"/>
-      <c r="BQ18" s="37"/>
-      <c r="BR18" s="37"/>
-      <c r="BS18" s="37"/>
-      <c r="BT18" s="37"/>
-      <c r="BU18" s="37"/>
-      <c r="BV18" s="37"/>
-      <c r="BW18" s="37"/>
-      <c r="BX18" s="37"/>
-      <c r="BY18" s="37"/>
-      <c r="BZ18" s="37"/>
-      <c r="CA18" s="37"/>
-      <c r="CB18" s="37"/>
-      <c r="CC18" s="37"/>
-      <c r="CD18" s="37"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="60"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="60"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="60"/>
+      <c r="AJ18" s="60"/>
+      <c r="AK18" s="60"/>
+      <c r="AL18" s="60"/>
+      <c r="AM18" s="60"/>
+      <c r="AN18" s="60"/>
+      <c r="AO18" s="60"/>
+      <c r="AP18" s="60"/>
+      <c r="AQ18" s="60"/>
+      <c r="AR18" s="60"/>
+      <c r="AS18" s="60"/>
+      <c r="AT18" s="60"/>
+      <c r="AU18" s="60"/>
+      <c r="AV18" s="60"/>
+      <c r="AW18" s="60"/>
+      <c r="AX18" s="60"/>
+      <c r="AY18" s="60"/>
+      <c r="AZ18" s="60"/>
+      <c r="BA18" s="60"/>
+      <c r="BB18" s="60"/>
+      <c r="BC18" s="60"/>
+      <c r="BD18" s="60"/>
+      <c r="BE18" s="60"/>
+      <c r="BF18" s="60"/>
+      <c r="BG18" s="60"/>
+      <c r="BH18" s="60"/>
+      <c r="BI18" s="60"/>
+      <c r="BJ18" s="60"/>
+      <c r="BK18" s="60"/>
+      <c r="BL18" s="60"/>
+      <c r="BM18" s="60"/>
+      <c r="BN18" s="60"/>
+      <c r="BO18" s="60"/>
+      <c r="BP18" s="60"/>
+      <c r="BQ18" s="60"/>
+      <c r="BR18" s="60"/>
+      <c r="BS18" s="60"/>
+      <c r="BT18" s="60"/>
+      <c r="BU18" s="60"/>
+      <c r="BV18" s="60"/>
+      <c r="BW18" s="60"/>
+      <c r="BX18" s="60"/>
+      <c r="BY18" s="60"/>
+      <c r="BZ18" s="60"/>
+      <c r="CA18" s="60"/>
+      <c r="CB18" s="60"/>
+      <c r="CC18" s="60"/>
+      <c r="CD18" s="60"/>
     </row>
     <row r="19" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="20"/>
@@ -8460,7 +9062,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="19"/>
       <c r="I28" s="38" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="J28" s="38"/>
       <c r="K28" s="38"/>
@@ -8474,7 +9076,9 @@
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
       <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
+      <c r="V28" s="38" t="s">
+        <v>70</v>
+      </c>
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
       <c r="Y28" s="38"/>
@@ -8502,7 +9106,9 @@
       <c r="AU28" s="38"/>
       <c r="AV28" s="38"/>
       <c r="AW28" s="38"/>
-      <c r="AX28" s="38"/>
+      <c r="AX28" s="38" t="s">
+        <v>71</v>
+      </c>
       <c r="AY28" s="38"/>
       <c r="AZ28" s="38"/>
       <c r="BA28" s="38"/>
@@ -8514,13 +9120,17 @@
       <c r="BG28" s="38"/>
       <c r="BH28" s="38"/>
       <c r="BI28" s="38"/>
-      <c r="BJ28" s="38"/>
+      <c r="BJ28" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="BK28" s="38"/>
       <c r="BL28" s="38"/>
       <c r="BM28" s="38"/>
       <c r="BN28" s="38"/>
       <c r="BO28" s="38"/>
-      <c r="BP28" s="38"/>
+      <c r="BP28" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="BQ28" s="38"/>
       <c r="BR28" s="38"/>
       <c r="BS28" s="38"/>
@@ -9416,7 +10026,7 @@
       <c r="F42" s="18"/>
       <c r="G42" s="19"/>
       <c r="I42" s="38" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="J42" s="38"/>
       <c r="K42" s="38"/>
@@ -9430,7 +10040,9 @@
       <c r="S42" s="38"/>
       <c r="T42" s="38"/>
       <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
+      <c r="V42" s="38" t="s">
+        <v>73</v>
+      </c>
       <c r="W42" s="38"/>
       <c r="X42" s="38"/>
       <c r="Y42" s="38"/>
@@ -9458,7 +10070,9 @@
       <c r="AU42" s="38"/>
       <c r="AV42" s="38"/>
       <c r="AW42" s="38"/>
-      <c r="AX42" s="38"/>
+      <c r="AX42" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="AY42" s="38"/>
       <c r="AZ42" s="38"/>
       <c r="BA42" s="38"/>
@@ -9470,13 +10084,17 @@
       <c r="BG42" s="38"/>
       <c r="BH42" s="38"/>
       <c r="BI42" s="38"/>
-      <c r="BJ42" s="38"/>
+      <c r="BJ42" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="BK42" s="38"/>
       <c r="BL42" s="38"/>
       <c r="BM42" s="38"/>
       <c r="BN42" s="38"/>
       <c r="BO42" s="38"/>
-      <c r="BP42" s="38"/>
+      <c r="BP42" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="BQ42" s="38"/>
       <c r="BR42" s="38"/>
       <c r="BS42" s="38"/>
@@ -9681,67 +10299,69 @@
       <c r="S45" s="37"/>
       <c r="T45" s="37"/>
       <c r="U45" s="37"/>
-      <c r="V45" s="58"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
-      <c r="AA45" s="37"/>
-      <c r="AB45" s="37"/>
-      <c r="AC45" s="37"/>
-      <c r="AD45" s="37"/>
-      <c r="AE45" s="37"/>
-      <c r="AF45" s="37"/>
-      <c r="AG45" s="37"/>
-      <c r="AH45" s="37"/>
-      <c r="AI45" s="37"/>
-      <c r="AJ45" s="37"/>
-      <c r="AK45" s="37"/>
-      <c r="AL45" s="37"/>
-      <c r="AM45" s="37"/>
-      <c r="AN45" s="37"/>
-      <c r="AO45" s="37"/>
-      <c r="AP45" s="37"/>
-      <c r="AQ45" s="37"/>
-      <c r="AR45" s="37"/>
-      <c r="AS45" s="37"/>
-      <c r="AT45" s="37"/>
-      <c r="AU45" s="37"/>
-      <c r="AV45" s="37"/>
-      <c r="AW45" s="37"/>
-      <c r="AX45" s="37"/>
-      <c r="AY45" s="37"/>
-      <c r="AZ45" s="37"/>
-      <c r="BA45" s="37"/>
-      <c r="BB45" s="37"/>
-      <c r="BC45" s="37"/>
-      <c r="BD45" s="37"/>
-      <c r="BE45" s="37"/>
-      <c r="BF45" s="37"/>
-      <c r="BG45" s="37"/>
-      <c r="BH45" s="37"/>
-      <c r="BI45" s="37"/>
-      <c r="BJ45" s="37"/>
-      <c r="BK45" s="37"/>
-      <c r="BL45" s="37"/>
-      <c r="BM45" s="37"/>
-      <c r="BN45" s="37"/>
-      <c r="BO45" s="37"/>
-      <c r="BP45" s="37"/>
-      <c r="BQ45" s="37"/>
-      <c r="BR45" s="37"/>
-      <c r="BS45" s="37"/>
-      <c r="BT45" s="37"/>
-      <c r="BU45" s="37"/>
-      <c r="BV45" s="37"/>
-      <c r="BW45" s="37"/>
-      <c r="BX45" s="37"/>
-      <c r="BY45" s="37"/>
-      <c r="BZ45" s="37"/>
-      <c r="CA45" s="37"/>
-      <c r="CB45" s="37"/>
-      <c r="CC45" s="37"/>
-      <c r="CD45" s="37"/>
+      <c r="V45" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="W45" s="60"/>
+      <c r="X45" s="60"/>
+      <c r="Y45" s="60"/>
+      <c r="Z45" s="60"/>
+      <c r="AA45" s="60"/>
+      <c r="AB45" s="60"/>
+      <c r="AC45" s="60"/>
+      <c r="AD45" s="60"/>
+      <c r="AE45" s="60"/>
+      <c r="AF45" s="60"/>
+      <c r="AG45" s="60"/>
+      <c r="AH45" s="60"/>
+      <c r="AI45" s="60"/>
+      <c r="AJ45" s="60"/>
+      <c r="AK45" s="60"/>
+      <c r="AL45" s="60"/>
+      <c r="AM45" s="60"/>
+      <c r="AN45" s="60"/>
+      <c r="AO45" s="60"/>
+      <c r="AP45" s="60"/>
+      <c r="AQ45" s="60"/>
+      <c r="AR45" s="60"/>
+      <c r="AS45" s="60"/>
+      <c r="AT45" s="60"/>
+      <c r="AU45" s="60"/>
+      <c r="AV45" s="60"/>
+      <c r="AW45" s="60"/>
+      <c r="AX45" s="60"/>
+      <c r="AY45" s="60"/>
+      <c r="AZ45" s="60"/>
+      <c r="BA45" s="60"/>
+      <c r="BB45" s="60"/>
+      <c r="BC45" s="60"/>
+      <c r="BD45" s="60"/>
+      <c r="BE45" s="60"/>
+      <c r="BF45" s="60"/>
+      <c r="BG45" s="60"/>
+      <c r="BH45" s="60"/>
+      <c r="BI45" s="60"/>
+      <c r="BJ45" s="60"/>
+      <c r="BK45" s="60"/>
+      <c r="BL45" s="60"/>
+      <c r="BM45" s="60"/>
+      <c r="BN45" s="60"/>
+      <c r="BO45" s="60"/>
+      <c r="BP45" s="60"/>
+      <c r="BQ45" s="60"/>
+      <c r="BR45" s="60"/>
+      <c r="BS45" s="60"/>
+      <c r="BT45" s="60"/>
+      <c r="BU45" s="60"/>
+      <c r="BV45" s="60"/>
+      <c r="BW45" s="60"/>
+      <c r="BX45" s="60"/>
+      <c r="BY45" s="60"/>
+      <c r="BZ45" s="60"/>
+      <c r="CA45" s="60"/>
+      <c r="CB45" s="60"/>
+      <c r="CC45" s="60"/>
+      <c r="CD45" s="60"/>
     </row>
     <row r="46" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="17"/>
@@ -9764,67 +10384,67 @@
       <c r="S46" s="37"/>
       <c r="T46" s="37"/>
       <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
-      <c r="AA46" s="37"/>
-      <c r="AB46" s="37"/>
-      <c r="AC46" s="37"/>
-      <c r="AD46" s="37"/>
-      <c r="AE46" s="37"/>
-      <c r="AF46" s="37"/>
-      <c r="AG46" s="37"/>
-      <c r="AH46" s="37"/>
-      <c r="AI46" s="37"/>
-      <c r="AJ46" s="37"/>
-      <c r="AK46" s="37"/>
-      <c r="AL46" s="37"/>
-      <c r="AM46" s="37"/>
-      <c r="AN46" s="37"/>
-      <c r="AO46" s="37"/>
-      <c r="AP46" s="37"/>
-      <c r="AQ46" s="37"/>
-      <c r="AR46" s="37"/>
-      <c r="AS46" s="37"/>
-      <c r="AT46" s="37"/>
-      <c r="AU46" s="37"/>
-      <c r="AV46" s="37"/>
-      <c r="AW46" s="37"/>
-      <c r="AX46" s="37"/>
-      <c r="AY46" s="37"/>
-      <c r="AZ46" s="37"/>
-      <c r="BA46" s="37"/>
-      <c r="BB46" s="37"/>
-      <c r="BC46" s="37"/>
-      <c r="BD46" s="37"/>
-      <c r="BE46" s="37"/>
-      <c r="BF46" s="37"/>
-      <c r="BG46" s="37"/>
-      <c r="BH46" s="37"/>
-      <c r="BI46" s="37"/>
-      <c r="BJ46" s="37"/>
-      <c r="BK46" s="37"/>
-      <c r="BL46" s="37"/>
-      <c r="BM46" s="37"/>
-      <c r="BN46" s="37"/>
-      <c r="BO46" s="37"/>
-      <c r="BP46" s="37"/>
-      <c r="BQ46" s="37"/>
-      <c r="BR46" s="37"/>
-      <c r="BS46" s="37"/>
-      <c r="BT46" s="37"/>
-      <c r="BU46" s="37"/>
-      <c r="BV46" s="37"/>
-      <c r="BW46" s="37"/>
-      <c r="BX46" s="37"/>
-      <c r="BY46" s="37"/>
-      <c r="BZ46" s="37"/>
-      <c r="CA46" s="37"/>
-      <c r="CB46" s="37"/>
-      <c r="CC46" s="37"/>
-      <c r="CD46" s="37"/>
+      <c r="V46" s="60"/>
+      <c r="W46" s="60"/>
+      <c r="X46" s="60"/>
+      <c r="Y46" s="60"/>
+      <c r="Z46" s="60"/>
+      <c r="AA46" s="60"/>
+      <c r="AB46" s="60"/>
+      <c r="AC46" s="60"/>
+      <c r="AD46" s="60"/>
+      <c r="AE46" s="60"/>
+      <c r="AF46" s="60"/>
+      <c r="AG46" s="60"/>
+      <c r="AH46" s="60"/>
+      <c r="AI46" s="60"/>
+      <c r="AJ46" s="60"/>
+      <c r="AK46" s="60"/>
+      <c r="AL46" s="60"/>
+      <c r="AM46" s="60"/>
+      <c r="AN46" s="60"/>
+      <c r="AO46" s="60"/>
+      <c r="AP46" s="60"/>
+      <c r="AQ46" s="60"/>
+      <c r="AR46" s="60"/>
+      <c r="AS46" s="60"/>
+      <c r="AT46" s="60"/>
+      <c r="AU46" s="60"/>
+      <c r="AV46" s="60"/>
+      <c r="AW46" s="60"/>
+      <c r="AX46" s="60"/>
+      <c r="AY46" s="60"/>
+      <c r="AZ46" s="60"/>
+      <c r="BA46" s="60"/>
+      <c r="BB46" s="60"/>
+      <c r="BC46" s="60"/>
+      <c r="BD46" s="60"/>
+      <c r="BE46" s="60"/>
+      <c r="BF46" s="60"/>
+      <c r="BG46" s="60"/>
+      <c r="BH46" s="60"/>
+      <c r="BI46" s="60"/>
+      <c r="BJ46" s="60"/>
+      <c r="BK46" s="60"/>
+      <c r="BL46" s="60"/>
+      <c r="BM46" s="60"/>
+      <c r="BN46" s="60"/>
+      <c r="BO46" s="60"/>
+      <c r="BP46" s="60"/>
+      <c r="BQ46" s="60"/>
+      <c r="BR46" s="60"/>
+      <c r="BS46" s="60"/>
+      <c r="BT46" s="60"/>
+      <c r="BU46" s="60"/>
+      <c r="BV46" s="60"/>
+      <c r="BW46" s="60"/>
+      <c r="BX46" s="60"/>
+      <c r="BY46" s="60"/>
+      <c r="BZ46" s="60"/>
+      <c r="CA46" s="60"/>
+      <c r="CB46" s="60"/>
+      <c r="CC46" s="60"/>
+      <c r="CD46" s="60"/>
     </row>
     <row r="47" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="20"/>
@@ -10336,7 +10956,7 @@
     </row>
     <row r="56" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I56" s="38" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="J56" s="38"/>
       <c r="K56" s="38"/>
@@ -10350,7 +10970,9 @@
       <c r="S56" s="38"/>
       <c r="T56" s="38"/>
       <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
+      <c r="V56" s="38" t="s">
+        <v>75</v>
+      </c>
       <c r="W56" s="38"/>
       <c r="X56" s="38"/>
       <c r="Y56" s="38"/>
@@ -10378,7 +11000,9 @@
       <c r="AU56" s="38"/>
       <c r="AV56" s="38"/>
       <c r="AW56" s="38"/>
-      <c r="AX56" s="38"/>
+      <c r="AX56" s="38" t="s">
+        <v>71</v>
+      </c>
       <c r="AY56" s="38"/>
       <c r="AZ56" s="38"/>
       <c r="BA56" s="38"/>
@@ -10390,13 +11014,17 @@
       <c r="BG56" s="38"/>
       <c r="BH56" s="38"/>
       <c r="BI56" s="38"/>
-      <c r="BJ56" s="38"/>
+      <c r="BJ56" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="BK56" s="38"/>
       <c r="BL56" s="38"/>
       <c r="BM56" s="38"/>
       <c r="BN56" s="38"/>
       <c r="BO56" s="38"/>
-      <c r="BP56" s="38"/>
+      <c r="BP56" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="BQ56" s="38"/>
       <c r="BR56" s="38"/>
       <c r="BS56" s="38"/>
@@ -10580,67 +11208,69 @@
       <c r="S59" s="37"/>
       <c r="T59" s="37"/>
       <c r="U59" s="37"/>
-      <c r="V59" s="58"/>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
-      <c r="Y59" s="37"/>
-      <c r="Z59" s="37"/>
-      <c r="AA59" s="37"/>
-      <c r="AB59" s="37"/>
-      <c r="AC59" s="37"/>
-      <c r="AD59" s="37"/>
-      <c r="AE59" s="37"/>
-      <c r="AF59" s="37"/>
-      <c r="AG59" s="37"/>
-      <c r="AH59" s="37"/>
-      <c r="AI59" s="37"/>
-      <c r="AJ59" s="37"/>
-      <c r="AK59" s="37"/>
-      <c r="AL59" s="37"/>
-      <c r="AM59" s="37"/>
-      <c r="AN59" s="37"/>
-      <c r="AO59" s="37"/>
-      <c r="AP59" s="37"/>
-      <c r="AQ59" s="37"/>
-      <c r="AR59" s="37"/>
-      <c r="AS59" s="37"/>
-      <c r="AT59" s="37"/>
-      <c r="AU59" s="37"/>
-      <c r="AV59" s="37"/>
-      <c r="AW59" s="37"/>
-      <c r="AX59" s="37"/>
-      <c r="AY59" s="37"/>
-      <c r="AZ59" s="37"/>
-      <c r="BA59" s="37"/>
-      <c r="BB59" s="37"/>
-      <c r="BC59" s="37"/>
-      <c r="BD59" s="37"/>
-      <c r="BE59" s="37"/>
-      <c r="BF59" s="37"/>
-      <c r="BG59" s="37"/>
-      <c r="BH59" s="37"/>
-      <c r="BI59" s="37"/>
-      <c r="BJ59" s="37"/>
-      <c r="BK59" s="37"/>
-      <c r="BL59" s="37"/>
-      <c r="BM59" s="37"/>
-      <c r="BN59" s="37"/>
-      <c r="BO59" s="37"/>
-      <c r="BP59" s="37"/>
-      <c r="BQ59" s="37"/>
-      <c r="BR59" s="37"/>
-      <c r="BS59" s="37"/>
-      <c r="BT59" s="37"/>
-      <c r="BU59" s="37"/>
-      <c r="BV59" s="37"/>
-      <c r="BW59" s="37"/>
-      <c r="BX59" s="37"/>
-      <c r="BY59" s="37"/>
-      <c r="BZ59" s="37"/>
-      <c r="CA59" s="37"/>
-      <c r="CB59" s="37"/>
-      <c r="CC59" s="37"/>
-      <c r="CD59" s="37"/>
+      <c r="V59" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="W59" s="60"/>
+      <c r="X59" s="60"/>
+      <c r="Y59" s="60"/>
+      <c r="Z59" s="60"/>
+      <c r="AA59" s="60"/>
+      <c r="AB59" s="60"/>
+      <c r="AC59" s="60"/>
+      <c r="AD59" s="60"/>
+      <c r="AE59" s="60"/>
+      <c r="AF59" s="60"/>
+      <c r="AG59" s="60"/>
+      <c r="AH59" s="60"/>
+      <c r="AI59" s="60"/>
+      <c r="AJ59" s="60"/>
+      <c r="AK59" s="60"/>
+      <c r="AL59" s="60"/>
+      <c r="AM59" s="60"/>
+      <c r="AN59" s="60"/>
+      <c r="AO59" s="60"/>
+      <c r="AP59" s="60"/>
+      <c r="AQ59" s="60"/>
+      <c r="AR59" s="60"/>
+      <c r="AS59" s="60"/>
+      <c r="AT59" s="60"/>
+      <c r="AU59" s="60"/>
+      <c r="AV59" s="60"/>
+      <c r="AW59" s="60"/>
+      <c r="AX59" s="60"/>
+      <c r="AY59" s="60"/>
+      <c r="AZ59" s="60"/>
+      <c r="BA59" s="60"/>
+      <c r="BB59" s="60"/>
+      <c r="BC59" s="60"/>
+      <c r="BD59" s="60"/>
+      <c r="BE59" s="60"/>
+      <c r="BF59" s="60"/>
+      <c r="BG59" s="60"/>
+      <c r="BH59" s="60"/>
+      <c r="BI59" s="60"/>
+      <c r="BJ59" s="60"/>
+      <c r="BK59" s="60"/>
+      <c r="BL59" s="60"/>
+      <c r="BM59" s="60"/>
+      <c r="BN59" s="60"/>
+      <c r="BO59" s="60"/>
+      <c r="BP59" s="60"/>
+      <c r="BQ59" s="60"/>
+      <c r="BR59" s="60"/>
+      <c r="BS59" s="60"/>
+      <c r="BT59" s="60"/>
+      <c r="BU59" s="60"/>
+      <c r="BV59" s="60"/>
+      <c r="BW59" s="60"/>
+      <c r="BX59" s="60"/>
+      <c r="BY59" s="60"/>
+      <c r="BZ59" s="60"/>
+      <c r="CA59" s="60"/>
+      <c r="CB59" s="60"/>
+      <c r="CC59" s="60"/>
+      <c r="CD59" s="60"/>
     </row>
     <row r="60" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I60" s="37"/>
@@ -10656,67 +11286,67 @@
       <c r="S60" s="37"/>
       <c r="T60" s="37"/>
       <c r="U60" s="37"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
-      <c r="Y60" s="37"/>
-      <c r="Z60" s="37"/>
-      <c r="AA60" s="37"/>
-      <c r="AB60" s="37"/>
-      <c r="AC60" s="37"/>
-      <c r="AD60" s="37"/>
-      <c r="AE60" s="37"/>
-      <c r="AF60" s="37"/>
-      <c r="AG60" s="37"/>
-      <c r="AH60" s="37"/>
-      <c r="AI60" s="37"/>
-      <c r="AJ60" s="37"/>
-      <c r="AK60" s="37"/>
-      <c r="AL60" s="37"/>
-      <c r="AM60" s="37"/>
-      <c r="AN60" s="37"/>
-      <c r="AO60" s="37"/>
-      <c r="AP60" s="37"/>
-      <c r="AQ60" s="37"/>
-      <c r="AR60" s="37"/>
-      <c r="AS60" s="37"/>
-      <c r="AT60" s="37"/>
-      <c r="AU60" s="37"/>
-      <c r="AV60" s="37"/>
-      <c r="AW60" s="37"/>
-      <c r="AX60" s="37"/>
-      <c r="AY60" s="37"/>
-      <c r="AZ60" s="37"/>
-      <c r="BA60" s="37"/>
-      <c r="BB60" s="37"/>
-      <c r="BC60" s="37"/>
-      <c r="BD60" s="37"/>
-      <c r="BE60" s="37"/>
-      <c r="BF60" s="37"/>
-      <c r="BG60" s="37"/>
-      <c r="BH60" s="37"/>
-      <c r="BI60" s="37"/>
-      <c r="BJ60" s="37"/>
-      <c r="BK60" s="37"/>
-      <c r="BL60" s="37"/>
-      <c r="BM60" s="37"/>
-      <c r="BN60" s="37"/>
-      <c r="BO60" s="37"/>
-      <c r="BP60" s="37"/>
-      <c r="BQ60" s="37"/>
-      <c r="BR60" s="37"/>
-      <c r="BS60" s="37"/>
-      <c r="BT60" s="37"/>
-      <c r="BU60" s="37"/>
-      <c r="BV60" s="37"/>
-      <c r="BW60" s="37"/>
-      <c r="BX60" s="37"/>
-      <c r="BY60" s="37"/>
-      <c r="BZ60" s="37"/>
-      <c r="CA60" s="37"/>
-      <c r="CB60" s="37"/>
-      <c r="CC60" s="37"/>
-      <c r="CD60" s="37"/>
+      <c r="V60" s="60"/>
+      <c r="W60" s="60"/>
+      <c r="X60" s="60"/>
+      <c r="Y60" s="60"/>
+      <c r="Z60" s="60"/>
+      <c r="AA60" s="60"/>
+      <c r="AB60" s="60"/>
+      <c r="AC60" s="60"/>
+      <c r="AD60" s="60"/>
+      <c r="AE60" s="60"/>
+      <c r="AF60" s="60"/>
+      <c r="AG60" s="60"/>
+      <c r="AH60" s="60"/>
+      <c r="AI60" s="60"/>
+      <c r="AJ60" s="60"/>
+      <c r="AK60" s="60"/>
+      <c r="AL60" s="60"/>
+      <c r="AM60" s="60"/>
+      <c r="AN60" s="60"/>
+      <c r="AO60" s="60"/>
+      <c r="AP60" s="60"/>
+      <c r="AQ60" s="60"/>
+      <c r="AR60" s="60"/>
+      <c r="AS60" s="60"/>
+      <c r="AT60" s="60"/>
+      <c r="AU60" s="60"/>
+      <c r="AV60" s="60"/>
+      <c r="AW60" s="60"/>
+      <c r="AX60" s="60"/>
+      <c r="AY60" s="60"/>
+      <c r="AZ60" s="60"/>
+      <c r="BA60" s="60"/>
+      <c r="BB60" s="60"/>
+      <c r="BC60" s="60"/>
+      <c r="BD60" s="60"/>
+      <c r="BE60" s="60"/>
+      <c r="BF60" s="60"/>
+      <c r="BG60" s="60"/>
+      <c r="BH60" s="60"/>
+      <c r="BI60" s="60"/>
+      <c r="BJ60" s="60"/>
+      <c r="BK60" s="60"/>
+      <c r="BL60" s="60"/>
+      <c r="BM60" s="60"/>
+      <c r="BN60" s="60"/>
+      <c r="BO60" s="60"/>
+      <c r="BP60" s="60"/>
+      <c r="BQ60" s="60"/>
+      <c r="BR60" s="60"/>
+      <c r="BS60" s="60"/>
+      <c r="BT60" s="60"/>
+      <c r="BU60" s="60"/>
+      <c r="BV60" s="60"/>
+      <c r="BW60" s="60"/>
+      <c r="BX60" s="60"/>
+      <c r="BY60" s="60"/>
+      <c r="BZ60" s="60"/>
+      <c r="CA60" s="60"/>
+      <c r="CB60" s="60"/>
+      <c r="CC60" s="60"/>
+      <c r="CD60" s="60"/>
     </row>
     <row r="61" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I61" s="37" t="s">
@@ -11189,7 +11819,7 @@
     </row>
     <row r="70" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I70" s="38" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J70" s="38"/>
       <c r="K70" s="38"/>
@@ -11203,7 +11833,9 @@
       <c r="S70" s="38"/>
       <c r="T70" s="38"/>
       <c r="U70" s="38"/>
-      <c r="V70" s="38"/>
+      <c r="V70" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="W70" s="38"/>
       <c r="X70" s="38"/>
       <c r="Y70" s="38"/>
@@ -11231,7 +11863,9 @@
       <c r="AU70" s="38"/>
       <c r="AV70" s="38"/>
       <c r="AW70" s="38"/>
-      <c r="AX70" s="38"/>
+      <c r="AX70" s="38" t="s">
+        <v>71</v>
+      </c>
       <c r="AY70" s="38"/>
       <c r="AZ70" s="38"/>
       <c r="BA70" s="38"/>
@@ -11243,13 +11877,17 @@
       <c r="BG70" s="38"/>
       <c r="BH70" s="38"/>
       <c r="BI70" s="38"/>
-      <c r="BJ70" s="38"/>
+      <c r="BJ70" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="BK70" s="38"/>
       <c r="BL70" s="38"/>
       <c r="BM70" s="38"/>
       <c r="BN70" s="38"/>
       <c r="BO70" s="38"/>
-      <c r="BP70" s="38"/>
+      <c r="BP70" s="38" t="s">
+        <v>55</v>
+      </c>
       <c r="BQ70" s="38"/>
       <c r="BR70" s="38"/>
       <c r="BS70" s="38"/>
@@ -11433,67 +12071,69 @@
       <c r="S73" s="37"/>
       <c r="T73" s="37"/>
       <c r="U73" s="37"/>
-      <c r="V73" s="58"/>
-      <c r="W73" s="37"/>
-      <c r="X73" s="37"/>
-      <c r="Y73" s="37"/>
-      <c r="Z73" s="37"/>
-      <c r="AA73" s="37"/>
-      <c r="AB73" s="37"/>
-      <c r="AC73" s="37"/>
-      <c r="AD73" s="37"/>
-      <c r="AE73" s="37"/>
-      <c r="AF73" s="37"/>
-      <c r="AG73" s="37"/>
-      <c r="AH73" s="37"/>
-      <c r="AI73" s="37"/>
-      <c r="AJ73" s="37"/>
-      <c r="AK73" s="37"/>
-      <c r="AL73" s="37"/>
-      <c r="AM73" s="37"/>
-      <c r="AN73" s="37"/>
-      <c r="AO73" s="37"/>
-      <c r="AP73" s="37"/>
-      <c r="AQ73" s="37"/>
-      <c r="AR73" s="37"/>
-      <c r="AS73" s="37"/>
-      <c r="AT73" s="37"/>
-      <c r="AU73" s="37"/>
-      <c r="AV73" s="37"/>
-      <c r="AW73" s="37"/>
-      <c r="AX73" s="37"/>
-      <c r="AY73" s="37"/>
-      <c r="AZ73" s="37"/>
-      <c r="BA73" s="37"/>
-      <c r="BB73" s="37"/>
-      <c r="BC73" s="37"/>
-      <c r="BD73" s="37"/>
-      <c r="BE73" s="37"/>
-      <c r="BF73" s="37"/>
-      <c r="BG73" s="37"/>
-      <c r="BH73" s="37"/>
-      <c r="BI73" s="37"/>
-      <c r="BJ73" s="37"/>
-      <c r="BK73" s="37"/>
-      <c r="BL73" s="37"/>
-      <c r="BM73" s="37"/>
-      <c r="BN73" s="37"/>
-      <c r="BO73" s="37"/>
-      <c r="BP73" s="37"/>
-      <c r="BQ73" s="37"/>
-      <c r="BR73" s="37"/>
-      <c r="BS73" s="37"/>
-      <c r="BT73" s="37"/>
-      <c r="BU73" s="37"/>
-      <c r="BV73" s="37"/>
-      <c r="BW73" s="37"/>
-      <c r="BX73" s="37"/>
-      <c r="BY73" s="37"/>
-      <c r="BZ73" s="37"/>
-      <c r="CA73" s="37"/>
-      <c r="CB73" s="37"/>
-      <c r="CC73" s="37"/>
-      <c r="CD73" s="37"/>
+      <c r="V73" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="W73" s="60"/>
+      <c r="X73" s="60"/>
+      <c r="Y73" s="60"/>
+      <c r="Z73" s="60"/>
+      <c r="AA73" s="60"/>
+      <c r="AB73" s="60"/>
+      <c r="AC73" s="60"/>
+      <c r="AD73" s="60"/>
+      <c r="AE73" s="60"/>
+      <c r="AF73" s="60"/>
+      <c r="AG73" s="60"/>
+      <c r="AH73" s="60"/>
+      <c r="AI73" s="60"/>
+      <c r="AJ73" s="60"/>
+      <c r="AK73" s="60"/>
+      <c r="AL73" s="60"/>
+      <c r="AM73" s="60"/>
+      <c r="AN73" s="60"/>
+      <c r="AO73" s="60"/>
+      <c r="AP73" s="60"/>
+      <c r="AQ73" s="60"/>
+      <c r="AR73" s="60"/>
+      <c r="AS73" s="60"/>
+      <c r="AT73" s="60"/>
+      <c r="AU73" s="60"/>
+      <c r="AV73" s="60"/>
+      <c r="AW73" s="60"/>
+      <c r="AX73" s="60"/>
+      <c r="AY73" s="60"/>
+      <c r="AZ73" s="60"/>
+      <c r="BA73" s="60"/>
+      <c r="BB73" s="60"/>
+      <c r="BC73" s="60"/>
+      <c r="BD73" s="60"/>
+      <c r="BE73" s="60"/>
+      <c r="BF73" s="60"/>
+      <c r="BG73" s="60"/>
+      <c r="BH73" s="60"/>
+      <c r="BI73" s="60"/>
+      <c r="BJ73" s="60"/>
+      <c r="BK73" s="60"/>
+      <c r="BL73" s="60"/>
+      <c r="BM73" s="60"/>
+      <c r="BN73" s="60"/>
+      <c r="BO73" s="60"/>
+      <c r="BP73" s="60"/>
+      <c r="BQ73" s="60"/>
+      <c r="BR73" s="60"/>
+      <c r="BS73" s="60"/>
+      <c r="BT73" s="60"/>
+      <c r="BU73" s="60"/>
+      <c r="BV73" s="60"/>
+      <c r="BW73" s="60"/>
+      <c r="BX73" s="60"/>
+      <c r="BY73" s="60"/>
+      <c r="BZ73" s="60"/>
+      <c r="CA73" s="60"/>
+      <c r="CB73" s="60"/>
+      <c r="CC73" s="60"/>
+      <c r="CD73" s="60"/>
     </row>
     <row r="74" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I74" s="37"/>
@@ -11509,67 +12149,67 @@
       <c r="S74" s="37"/>
       <c r="T74" s="37"/>
       <c r="U74" s="37"/>
-      <c r="V74" s="37"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="37"/>
-      <c r="Y74" s="37"/>
-      <c r="Z74" s="37"/>
-      <c r="AA74" s="37"/>
-      <c r="AB74" s="37"/>
-      <c r="AC74" s="37"/>
-      <c r="AD74" s="37"/>
-      <c r="AE74" s="37"/>
-      <c r="AF74" s="37"/>
-      <c r="AG74" s="37"/>
-      <c r="AH74" s="37"/>
-      <c r="AI74" s="37"/>
-      <c r="AJ74" s="37"/>
-      <c r="AK74" s="37"/>
-      <c r="AL74" s="37"/>
-      <c r="AM74" s="37"/>
-      <c r="AN74" s="37"/>
-      <c r="AO74" s="37"/>
-      <c r="AP74" s="37"/>
-      <c r="AQ74" s="37"/>
-      <c r="AR74" s="37"/>
-      <c r="AS74" s="37"/>
-      <c r="AT74" s="37"/>
-      <c r="AU74" s="37"/>
-      <c r="AV74" s="37"/>
-      <c r="AW74" s="37"/>
-      <c r="AX74" s="37"/>
-      <c r="AY74" s="37"/>
-      <c r="AZ74" s="37"/>
-      <c r="BA74" s="37"/>
-      <c r="BB74" s="37"/>
-      <c r="BC74" s="37"/>
-      <c r="BD74" s="37"/>
-      <c r="BE74" s="37"/>
-      <c r="BF74" s="37"/>
-      <c r="BG74" s="37"/>
-      <c r="BH74" s="37"/>
-      <c r="BI74" s="37"/>
-      <c r="BJ74" s="37"/>
-      <c r="BK74" s="37"/>
-      <c r="BL74" s="37"/>
-      <c r="BM74" s="37"/>
-      <c r="BN74" s="37"/>
-      <c r="BO74" s="37"/>
-      <c r="BP74" s="37"/>
-      <c r="BQ74" s="37"/>
-      <c r="BR74" s="37"/>
-      <c r="BS74" s="37"/>
-      <c r="BT74" s="37"/>
-      <c r="BU74" s="37"/>
-      <c r="BV74" s="37"/>
-      <c r="BW74" s="37"/>
-      <c r="BX74" s="37"/>
-      <c r="BY74" s="37"/>
-      <c r="BZ74" s="37"/>
-      <c r="CA74" s="37"/>
-      <c r="CB74" s="37"/>
-      <c r="CC74" s="37"/>
-      <c r="CD74" s="37"/>
+      <c r="V74" s="60"/>
+      <c r="W74" s="60"/>
+      <c r="X74" s="60"/>
+      <c r="Y74" s="60"/>
+      <c r="Z74" s="60"/>
+      <c r="AA74" s="60"/>
+      <c r="AB74" s="60"/>
+      <c r="AC74" s="60"/>
+      <c r="AD74" s="60"/>
+      <c r="AE74" s="60"/>
+      <c r="AF74" s="60"/>
+      <c r="AG74" s="60"/>
+      <c r="AH74" s="60"/>
+      <c r="AI74" s="60"/>
+      <c r="AJ74" s="60"/>
+      <c r="AK74" s="60"/>
+      <c r="AL74" s="60"/>
+      <c r="AM74" s="60"/>
+      <c r="AN74" s="60"/>
+      <c r="AO74" s="60"/>
+      <c r="AP74" s="60"/>
+      <c r="AQ74" s="60"/>
+      <c r="AR74" s="60"/>
+      <c r="AS74" s="60"/>
+      <c r="AT74" s="60"/>
+      <c r="AU74" s="60"/>
+      <c r="AV74" s="60"/>
+      <c r="AW74" s="60"/>
+      <c r="AX74" s="60"/>
+      <c r="AY74" s="60"/>
+      <c r="AZ74" s="60"/>
+      <c r="BA74" s="60"/>
+      <c r="BB74" s="60"/>
+      <c r="BC74" s="60"/>
+      <c r="BD74" s="60"/>
+      <c r="BE74" s="60"/>
+      <c r="BF74" s="60"/>
+      <c r="BG74" s="60"/>
+      <c r="BH74" s="60"/>
+      <c r="BI74" s="60"/>
+      <c r="BJ74" s="60"/>
+      <c r="BK74" s="60"/>
+      <c r="BL74" s="60"/>
+      <c r="BM74" s="60"/>
+      <c r="BN74" s="60"/>
+      <c r="BO74" s="60"/>
+      <c r="BP74" s="60"/>
+      <c r="BQ74" s="60"/>
+      <c r="BR74" s="60"/>
+      <c r="BS74" s="60"/>
+      <c r="BT74" s="60"/>
+      <c r="BU74" s="60"/>
+      <c r="BV74" s="60"/>
+      <c r="BW74" s="60"/>
+      <c r="BX74" s="60"/>
+      <c r="BY74" s="60"/>
+      <c r="BZ74" s="60"/>
+      <c r="CA74" s="60"/>
+      <c r="CB74" s="60"/>
+      <c r="CC74" s="60"/>
+      <c r="CD74" s="60"/>
     </row>
     <row r="75" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I75" s="37" t="s">
@@ -12042,7 +12682,7 @@
     </row>
     <row r="84" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I84" s="38" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="J84" s="38"/>
       <c r="K84" s="38"/>
@@ -12056,7 +12696,9 @@
       <c r="S84" s="38"/>
       <c r="T84" s="38"/>
       <c r="U84" s="38"/>
-      <c r="V84" s="38"/>
+      <c r="V84" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="W84" s="38"/>
       <c r="X84" s="38"/>
       <c r="Y84" s="38"/>
@@ -12084,7 +12726,9 @@
       <c r="AU84" s="38"/>
       <c r="AV84" s="38"/>
       <c r="AW84" s="38"/>
-      <c r="AX84" s="38"/>
+      <c r="AX84" s="38" t="s">
+        <v>71</v>
+      </c>
       <c r="AY84" s="38"/>
       <c r="AZ84" s="38"/>
       <c r="BA84" s="38"/>
@@ -12096,13 +12740,17 @@
       <c r="BG84" s="38"/>
       <c r="BH84" s="38"/>
       <c r="BI84" s="38"/>
-      <c r="BJ84" s="38"/>
+      <c r="BJ84" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="BK84" s="38"/>
       <c r="BL84" s="38"/>
       <c r="BM84" s="38"/>
       <c r="BN84" s="38"/>
       <c r="BO84" s="38"/>
-      <c r="BP84" s="38"/>
+      <c r="BP84" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="BQ84" s="38"/>
       <c r="BR84" s="38"/>
       <c r="BS84" s="38"/>
@@ -12286,67 +12934,69 @@
       <c r="S87" s="37"/>
       <c r="T87" s="37"/>
       <c r="U87" s="37"/>
-      <c r="V87" s="58"/>
-      <c r="W87" s="37"/>
-      <c r="X87" s="37"/>
-      <c r="Y87" s="37"/>
-      <c r="Z87" s="37"/>
-      <c r="AA87" s="37"/>
-      <c r="AB87" s="37"/>
-      <c r="AC87" s="37"/>
-      <c r="AD87" s="37"/>
-      <c r="AE87" s="37"/>
-      <c r="AF87" s="37"/>
-      <c r="AG87" s="37"/>
-      <c r="AH87" s="37"/>
-      <c r="AI87" s="37"/>
-      <c r="AJ87" s="37"/>
-      <c r="AK87" s="37"/>
-      <c r="AL87" s="37"/>
-      <c r="AM87" s="37"/>
-      <c r="AN87" s="37"/>
-      <c r="AO87" s="37"/>
-      <c r="AP87" s="37"/>
-      <c r="AQ87" s="37"/>
-      <c r="AR87" s="37"/>
-      <c r="AS87" s="37"/>
-      <c r="AT87" s="37"/>
-      <c r="AU87" s="37"/>
-      <c r="AV87" s="37"/>
-      <c r="AW87" s="37"/>
-      <c r="AX87" s="37"/>
-      <c r="AY87" s="37"/>
-      <c r="AZ87" s="37"/>
-      <c r="BA87" s="37"/>
-      <c r="BB87" s="37"/>
-      <c r="BC87" s="37"/>
-      <c r="BD87" s="37"/>
-      <c r="BE87" s="37"/>
-      <c r="BF87" s="37"/>
-      <c r="BG87" s="37"/>
-      <c r="BH87" s="37"/>
-      <c r="BI87" s="37"/>
-      <c r="BJ87" s="37"/>
-      <c r="BK87" s="37"/>
-      <c r="BL87" s="37"/>
-      <c r="BM87" s="37"/>
-      <c r="BN87" s="37"/>
-      <c r="BO87" s="37"/>
-      <c r="BP87" s="37"/>
-      <c r="BQ87" s="37"/>
-      <c r="BR87" s="37"/>
-      <c r="BS87" s="37"/>
-      <c r="BT87" s="37"/>
-      <c r="BU87" s="37"/>
-      <c r="BV87" s="37"/>
-      <c r="BW87" s="37"/>
-      <c r="BX87" s="37"/>
-      <c r="BY87" s="37"/>
-      <c r="BZ87" s="37"/>
-      <c r="CA87" s="37"/>
-      <c r="CB87" s="37"/>
-      <c r="CC87" s="37"/>
-      <c r="CD87" s="37"/>
+      <c r="V87" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="W87" s="60"/>
+      <c r="X87" s="60"/>
+      <c r="Y87" s="60"/>
+      <c r="Z87" s="60"/>
+      <c r="AA87" s="60"/>
+      <c r="AB87" s="60"/>
+      <c r="AC87" s="60"/>
+      <c r="AD87" s="60"/>
+      <c r="AE87" s="60"/>
+      <c r="AF87" s="60"/>
+      <c r="AG87" s="60"/>
+      <c r="AH87" s="60"/>
+      <c r="AI87" s="60"/>
+      <c r="AJ87" s="60"/>
+      <c r="AK87" s="60"/>
+      <c r="AL87" s="60"/>
+      <c r="AM87" s="60"/>
+      <c r="AN87" s="60"/>
+      <c r="AO87" s="60"/>
+      <c r="AP87" s="60"/>
+      <c r="AQ87" s="60"/>
+      <c r="AR87" s="60"/>
+      <c r="AS87" s="60"/>
+      <c r="AT87" s="60"/>
+      <c r="AU87" s="60"/>
+      <c r="AV87" s="60"/>
+      <c r="AW87" s="60"/>
+      <c r="AX87" s="60"/>
+      <c r="AY87" s="60"/>
+      <c r="AZ87" s="60"/>
+      <c r="BA87" s="60"/>
+      <c r="BB87" s="60"/>
+      <c r="BC87" s="60"/>
+      <c r="BD87" s="60"/>
+      <c r="BE87" s="60"/>
+      <c r="BF87" s="60"/>
+      <c r="BG87" s="60"/>
+      <c r="BH87" s="60"/>
+      <c r="BI87" s="60"/>
+      <c r="BJ87" s="60"/>
+      <c r="BK87" s="60"/>
+      <c r="BL87" s="60"/>
+      <c r="BM87" s="60"/>
+      <c r="BN87" s="60"/>
+      <c r="BO87" s="60"/>
+      <c r="BP87" s="60"/>
+      <c r="BQ87" s="60"/>
+      <c r="BR87" s="60"/>
+      <c r="BS87" s="60"/>
+      <c r="BT87" s="60"/>
+      <c r="BU87" s="60"/>
+      <c r="BV87" s="60"/>
+      <c r="BW87" s="60"/>
+      <c r="BX87" s="60"/>
+      <c r="BY87" s="60"/>
+      <c r="BZ87" s="60"/>
+      <c r="CA87" s="60"/>
+      <c r="CB87" s="60"/>
+      <c r="CC87" s="60"/>
+      <c r="CD87" s="60"/>
     </row>
     <row r="88" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I88" s="37"/>
@@ -12362,67 +13012,67 @@
       <c r="S88" s="37"/>
       <c r="T88" s="37"/>
       <c r="U88" s="37"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="37"/>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="37"/>
-      <c r="Z88" s="37"/>
-      <c r="AA88" s="37"/>
-      <c r="AB88" s="37"/>
-      <c r="AC88" s="37"/>
-      <c r="AD88" s="37"/>
-      <c r="AE88" s="37"/>
-      <c r="AF88" s="37"/>
-      <c r="AG88" s="37"/>
-      <c r="AH88" s="37"/>
-      <c r="AI88" s="37"/>
-      <c r="AJ88" s="37"/>
-      <c r="AK88" s="37"/>
-      <c r="AL88" s="37"/>
-      <c r="AM88" s="37"/>
-      <c r="AN88" s="37"/>
-      <c r="AO88" s="37"/>
-      <c r="AP88" s="37"/>
-      <c r="AQ88" s="37"/>
-      <c r="AR88" s="37"/>
-      <c r="AS88" s="37"/>
-      <c r="AT88" s="37"/>
-      <c r="AU88" s="37"/>
-      <c r="AV88" s="37"/>
-      <c r="AW88" s="37"/>
-      <c r="AX88" s="37"/>
-      <c r="AY88" s="37"/>
-      <c r="AZ88" s="37"/>
-      <c r="BA88" s="37"/>
-      <c r="BB88" s="37"/>
-      <c r="BC88" s="37"/>
-      <c r="BD88" s="37"/>
-      <c r="BE88" s="37"/>
-      <c r="BF88" s="37"/>
-      <c r="BG88" s="37"/>
-      <c r="BH88" s="37"/>
-      <c r="BI88" s="37"/>
-      <c r="BJ88" s="37"/>
-      <c r="BK88" s="37"/>
-      <c r="BL88" s="37"/>
-      <c r="BM88" s="37"/>
-      <c r="BN88" s="37"/>
-      <c r="BO88" s="37"/>
-      <c r="BP88" s="37"/>
-      <c r="BQ88" s="37"/>
-      <c r="BR88" s="37"/>
-      <c r="BS88" s="37"/>
-      <c r="BT88" s="37"/>
-      <c r="BU88" s="37"/>
-      <c r="BV88" s="37"/>
-      <c r="BW88" s="37"/>
-      <c r="BX88" s="37"/>
-      <c r="BY88" s="37"/>
-      <c r="BZ88" s="37"/>
-      <c r="CA88" s="37"/>
-      <c r="CB88" s="37"/>
-      <c r="CC88" s="37"/>
-      <c r="CD88" s="37"/>
+      <c r="V88" s="60"/>
+      <c r="W88" s="60"/>
+      <c r="X88" s="60"/>
+      <c r="Y88" s="60"/>
+      <c r="Z88" s="60"/>
+      <c r="AA88" s="60"/>
+      <c r="AB88" s="60"/>
+      <c r="AC88" s="60"/>
+      <c r="AD88" s="60"/>
+      <c r="AE88" s="60"/>
+      <c r="AF88" s="60"/>
+      <c r="AG88" s="60"/>
+      <c r="AH88" s="60"/>
+      <c r="AI88" s="60"/>
+      <c r="AJ88" s="60"/>
+      <c r="AK88" s="60"/>
+      <c r="AL88" s="60"/>
+      <c r="AM88" s="60"/>
+      <c r="AN88" s="60"/>
+      <c r="AO88" s="60"/>
+      <c r="AP88" s="60"/>
+      <c r="AQ88" s="60"/>
+      <c r="AR88" s="60"/>
+      <c r="AS88" s="60"/>
+      <c r="AT88" s="60"/>
+      <c r="AU88" s="60"/>
+      <c r="AV88" s="60"/>
+      <c r="AW88" s="60"/>
+      <c r="AX88" s="60"/>
+      <c r="AY88" s="60"/>
+      <c r="AZ88" s="60"/>
+      <c r="BA88" s="60"/>
+      <c r="BB88" s="60"/>
+      <c r="BC88" s="60"/>
+      <c r="BD88" s="60"/>
+      <c r="BE88" s="60"/>
+      <c r="BF88" s="60"/>
+      <c r="BG88" s="60"/>
+      <c r="BH88" s="60"/>
+      <c r="BI88" s="60"/>
+      <c r="BJ88" s="60"/>
+      <c r="BK88" s="60"/>
+      <c r="BL88" s="60"/>
+      <c r="BM88" s="60"/>
+      <c r="BN88" s="60"/>
+      <c r="BO88" s="60"/>
+      <c r="BP88" s="60"/>
+      <c r="BQ88" s="60"/>
+      <c r="BR88" s="60"/>
+      <c r="BS88" s="60"/>
+      <c r="BT88" s="60"/>
+      <c r="BU88" s="60"/>
+      <c r="BV88" s="60"/>
+      <c r="BW88" s="60"/>
+      <c r="BX88" s="60"/>
+      <c r="BY88" s="60"/>
+      <c r="BZ88" s="60"/>
+      <c r="CA88" s="60"/>
+      <c r="CB88" s="60"/>
+      <c r="CC88" s="60"/>
+      <c r="CD88" s="60"/>
     </row>
     <row r="89" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I89" s="37" t="s">
@@ -12895,7 +13545,7 @@
     </row>
     <row r="98" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I98" s="38" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="J98" s="38"/>
       <c r="K98" s="38"/>
@@ -12909,7 +13559,9 @@
       <c r="S98" s="38"/>
       <c r="T98" s="38"/>
       <c r="U98" s="38"/>
-      <c r="V98" s="38"/>
+      <c r="V98" s="38" t="s">
+        <v>79</v>
+      </c>
       <c r="W98" s="38"/>
       <c r="X98" s="38"/>
       <c r="Y98" s="38"/>
@@ -12937,7 +13589,9 @@
       <c r="AU98" s="38"/>
       <c r="AV98" s="38"/>
       <c r="AW98" s="38"/>
-      <c r="AX98" s="38"/>
+      <c r="AX98" s="38" t="s">
+        <v>71</v>
+      </c>
       <c r="AY98" s="38"/>
       <c r="AZ98" s="38"/>
       <c r="BA98" s="38"/>
@@ -12949,13 +13603,17 @@
       <c r="BG98" s="38"/>
       <c r="BH98" s="38"/>
       <c r="BI98" s="38"/>
-      <c r="BJ98" s="38"/>
+      <c r="BJ98" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="BK98" s="38"/>
       <c r="BL98" s="38"/>
       <c r="BM98" s="38"/>
       <c r="BN98" s="38"/>
       <c r="BO98" s="38"/>
-      <c r="BP98" s="38"/>
+      <c r="BP98" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="BQ98" s="38"/>
       <c r="BR98" s="38"/>
       <c r="BS98" s="38"/>
@@ -13139,67 +13797,69 @@
       <c r="S101" s="37"/>
       <c r="T101" s="37"/>
       <c r="U101" s="37"/>
-      <c r="V101" s="58"/>
-      <c r="W101" s="37"/>
-      <c r="X101" s="37"/>
-      <c r="Y101" s="37"/>
-      <c r="Z101" s="37"/>
-      <c r="AA101" s="37"/>
-      <c r="AB101" s="37"/>
-      <c r="AC101" s="37"/>
-      <c r="AD101" s="37"/>
-      <c r="AE101" s="37"/>
-      <c r="AF101" s="37"/>
-      <c r="AG101" s="37"/>
-      <c r="AH101" s="37"/>
-      <c r="AI101" s="37"/>
-      <c r="AJ101" s="37"/>
-      <c r="AK101" s="37"/>
-      <c r="AL101" s="37"/>
-      <c r="AM101" s="37"/>
-      <c r="AN101" s="37"/>
-      <c r="AO101" s="37"/>
-      <c r="AP101" s="37"/>
-      <c r="AQ101" s="37"/>
-      <c r="AR101" s="37"/>
-      <c r="AS101" s="37"/>
-      <c r="AT101" s="37"/>
-      <c r="AU101" s="37"/>
-      <c r="AV101" s="37"/>
-      <c r="AW101" s="37"/>
-      <c r="AX101" s="37"/>
-      <c r="AY101" s="37"/>
-      <c r="AZ101" s="37"/>
-      <c r="BA101" s="37"/>
-      <c r="BB101" s="37"/>
-      <c r="BC101" s="37"/>
-      <c r="BD101" s="37"/>
-      <c r="BE101" s="37"/>
-      <c r="BF101" s="37"/>
-      <c r="BG101" s="37"/>
-      <c r="BH101" s="37"/>
-      <c r="BI101" s="37"/>
-      <c r="BJ101" s="37"/>
-      <c r="BK101" s="37"/>
-      <c r="BL101" s="37"/>
-      <c r="BM101" s="37"/>
-      <c r="BN101" s="37"/>
-      <c r="BO101" s="37"/>
-      <c r="BP101" s="37"/>
-      <c r="BQ101" s="37"/>
-      <c r="BR101" s="37"/>
-      <c r="BS101" s="37"/>
-      <c r="BT101" s="37"/>
-      <c r="BU101" s="37"/>
-      <c r="BV101" s="37"/>
-      <c r="BW101" s="37"/>
-      <c r="BX101" s="37"/>
-      <c r="BY101" s="37"/>
-      <c r="BZ101" s="37"/>
-      <c r="CA101" s="37"/>
-      <c r="CB101" s="37"/>
-      <c r="CC101" s="37"/>
-      <c r="CD101" s="37"/>
+      <c r="V101" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="W101" s="60"/>
+      <c r="X101" s="60"/>
+      <c r="Y101" s="60"/>
+      <c r="Z101" s="60"/>
+      <c r="AA101" s="60"/>
+      <c r="AB101" s="60"/>
+      <c r="AC101" s="60"/>
+      <c r="AD101" s="60"/>
+      <c r="AE101" s="60"/>
+      <c r="AF101" s="60"/>
+      <c r="AG101" s="60"/>
+      <c r="AH101" s="60"/>
+      <c r="AI101" s="60"/>
+      <c r="AJ101" s="60"/>
+      <c r="AK101" s="60"/>
+      <c r="AL101" s="60"/>
+      <c r="AM101" s="60"/>
+      <c r="AN101" s="60"/>
+      <c r="AO101" s="60"/>
+      <c r="AP101" s="60"/>
+      <c r="AQ101" s="60"/>
+      <c r="AR101" s="60"/>
+      <c r="AS101" s="60"/>
+      <c r="AT101" s="60"/>
+      <c r="AU101" s="60"/>
+      <c r="AV101" s="60"/>
+      <c r="AW101" s="60"/>
+      <c r="AX101" s="60"/>
+      <c r="AY101" s="60"/>
+      <c r="AZ101" s="60"/>
+      <c r="BA101" s="60"/>
+      <c r="BB101" s="60"/>
+      <c r="BC101" s="60"/>
+      <c r="BD101" s="60"/>
+      <c r="BE101" s="60"/>
+      <c r="BF101" s="60"/>
+      <c r="BG101" s="60"/>
+      <c r="BH101" s="60"/>
+      <c r="BI101" s="60"/>
+      <c r="BJ101" s="60"/>
+      <c r="BK101" s="60"/>
+      <c r="BL101" s="60"/>
+      <c r="BM101" s="60"/>
+      <c r="BN101" s="60"/>
+      <c r="BO101" s="60"/>
+      <c r="BP101" s="60"/>
+      <c r="BQ101" s="60"/>
+      <c r="BR101" s="60"/>
+      <c r="BS101" s="60"/>
+      <c r="BT101" s="60"/>
+      <c r="BU101" s="60"/>
+      <c r="BV101" s="60"/>
+      <c r="BW101" s="60"/>
+      <c r="BX101" s="60"/>
+      <c r="BY101" s="60"/>
+      <c r="BZ101" s="60"/>
+      <c r="CA101" s="60"/>
+      <c r="CB101" s="60"/>
+      <c r="CC101" s="60"/>
+      <c r="CD101" s="60"/>
     </row>
     <row r="102" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I102" s="37"/>
@@ -13215,67 +13875,67 @@
       <c r="S102" s="37"/>
       <c r="T102" s="37"/>
       <c r="U102" s="37"/>
-      <c r="V102" s="37"/>
-      <c r="W102" s="37"/>
-      <c r="X102" s="37"/>
-      <c r="Y102" s="37"/>
-      <c r="Z102" s="37"/>
-      <c r="AA102" s="37"/>
-      <c r="AB102" s="37"/>
-      <c r="AC102" s="37"/>
-      <c r="AD102" s="37"/>
-      <c r="AE102" s="37"/>
-      <c r="AF102" s="37"/>
-      <c r="AG102" s="37"/>
-      <c r="AH102" s="37"/>
-      <c r="AI102" s="37"/>
-      <c r="AJ102" s="37"/>
-      <c r="AK102" s="37"/>
-      <c r="AL102" s="37"/>
-      <c r="AM102" s="37"/>
-      <c r="AN102" s="37"/>
-      <c r="AO102" s="37"/>
-      <c r="AP102" s="37"/>
-      <c r="AQ102" s="37"/>
-      <c r="AR102" s="37"/>
-      <c r="AS102" s="37"/>
-      <c r="AT102" s="37"/>
-      <c r="AU102" s="37"/>
-      <c r="AV102" s="37"/>
-      <c r="AW102" s="37"/>
-      <c r="AX102" s="37"/>
-      <c r="AY102" s="37"/>
-      <c r="AZ102" s="37"/>
-      <c r="BA102" s="37"/>
-      <c r="BB102" s="37"/>
-      <c r="BC102" s="37"/>
-      <c r="BD102" s="37"/>
-      <c r="BE102" s="37"/>
-      <c r="BF102" s="37"/>
-      <c r="BG102" s="37"/>
-      <c r="BH102" s="37"/>
-      <c r="BI102" s="37"/>
-      <c r="BJ102" s="37"/>
-      <c r="BK102" s="37"/>
-      <c r="BL102" s="37"/>
-      <c r="BM102" s="37"/>
-      <c r="BN102" s="37"/>
-      <c r="BO102" s="37"/>
-      <c r="BP102" s="37"/>
-      <c r="BQ102" s="37"/>
-      <c r="BR102" s="37"/>
-      <c r="BS102" s="37"/>
-      <c r="BT102" s="37"/>
-      <c r="BU102" s="37"/>
-      <c r="BV102" s="37"/>
-      <c r="BW102" s="37"/>
-      <c r="BX102" s="37"/>
-      <c r="BY102" s="37"/>
-      <c r="BZ102" s="37"/>
-      <c r="CA102" s="37"/>
-      <c r="CB102" s="37"/>
-      <c r="CC102" s="37"/>
-      <c r="CD102" s="37"/>
+      <c r="V102" s="60"/>
+      <c r="W102" s="60"/>
+      <c r="X102" s="60"/>
+      <c r="Y102" s="60"/>
+      <c r="Z102" s="60"/>
+      <c r="AA102" s="60"/>
+      <c r="AB102" s="60"/>
+      <c r="AC102" s="60"/>
+      <c r="AD102" s="60"/>
+      <c r="AE102" s="60"/>
+      <c r="AF102" s="60"/>
+      <c r="AG102" s="60"/>
+      <c r="AH102" s="60"/>
+      <c r="AI102" s="60"/>
+      <c r="AJ102" s="60"/>
+      <c r="AK102" s="60"/>
+      <c r="AL102" s="60"/>
+      <c r="AM102" s="60"/>
+      <c r="AN102" s="60"/>
+      <c r="AO102" s="60"/>
+      <c r="AP102" s="60"/>
+      <c r="AQ102" s="60"/>
+      <c r="AR102" s="60"/>
+      <c r="AS102" s="60"/>
+      <c r="AT102" s="60"/>
+      <c r="AU102" s="60"/>
+      <c r="AV102" s="60"/>
+      <c r="AW102" s="60"/>
+      <c r="AX102" s="60"/>
+      <c r="AY102" s="60"/>
+      <c r="AZ102" s="60"/>
+      <c r="BA102" s="60"/>
+      <c r="BB102" s="60"/>
+      <c r="BC102" s="60"/>
+      <c r="BD102" s="60"/>
+      <c r="BE102" s="60"/>
+      <c r="BF102" s="60"/>
+      <c r="BG102" s="60"/>
+      <c r="BH102" s="60"/>
+      <c r="BI102" s="60"/>
+      <c r="BJ102" s="60"/>
+      <c r="BK102" s="60"/>
+      <c r="BL102" s="60"/>
+      <c r="BM102" s="60"/>
+      <c r="BN102" s="60"/>
+      <c r="BO102" s="60"/>
+      <c r="BP102" s="60"/>
+      <c r="BQ102" s="60"/>
+      <c r="BR102" s="60"/>
+      <c r="BS102" s="60"/>
+      <c r="BT102" s="60"/>
+      <c r="BU102" s="60"/>
+      <c r="BV102" s="60"/>
+      <c r="BW102" s="60"/>
+      <c r="BX102" s="60"/>
+      <c r="BY102" s="60"/>
+      <c r="BZ102" s="60"/>
+      <c r="CA102" s="60"/>
+      <c r="CB102" s="60"/>
+      <c r="CC102" s="60"/>
+      <c r="CD102" s="60"/>
     </row>
     <row r="103" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I103" s="37" t="s">
@@ -13748,7 +14408,7 @@
     </row>
     <row r="112" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I112" s="38" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="J112" s="38"/>
       <c r="K112" s="38"/>
@@ -13762,7 +14422,9 @@
       <c r="S112" s="38"/>
       <c r="T112" s="38"/>
       <c r="U112" s="38"/>
-      <c r="V112" s="38"/>
+      <c r="V112" s="38" t="s">
+        <v>81</v>
+      </c>
       <c r="W112" s="38"/>
       <c r="X112" s="38"/>
       <c r="Y112" s="38"/>
@@ -13790,7 +14452,9 @@
       <c r="AU112" s="38"/>
       <c r="AV112" s="38"/>
       <c r="AW112" s="38"/>
-      <c r="AX112" s="38"/>
+      <c r="AX112" s="38" t="s">
+        <v>71</v>
+      </c>
       <c r="AY112" s="38"/>
       <c r="AZ112" s="38"/>
       <c r="BA112" s="38"/>
@@ -13802,13 +14466,17 @@
       <c r="BG112" s="38"/>
       <c r="BH112" s="38"/>
       <c r="BI112" s="38"/>
-      <c r="BJ112" s="38"/>
+      <c r="BJ112" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="BK112" s="38"/>
       <c r="BL112" s="38"/>
       <c r="BM112" s="38"/>
       <c r="BN112" s="38"/>
       <c r="BO112" s="38"/>
-      <c r="BP112" s="38"/>
+      <c r="BP112" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="BQ112" s="38"/>
       <c r="BR112" s="38"/>
       <c r="BS112" s="38"/>
@@ -13992,67 +14660,69 @@
       <c r="S115" s="37"/>
       <c r="T115" s="37"/>
       <c r="U115" s="37"/>
-      <c r="V115" s="58"/>
-      <c r="W115" s="37"/>
-      <c r="X115" s="37"/>
-      <c r="Y115" s="37"/>
-      <c r="Z115" s="37"/>
-      <c r="AA115" s="37"/>
-      <c r="AB115" s="37"/>
-      <c r="AC115" s="37"/>
-      <c r="AD115" s="37"/>
-      <c r="AE115" s="37"/>
-      <c r="AF115" s="37"/>
-      <c r="AG115" s="37"/>
-      <c r="AH115" s="37"/>
-      <c r="AI115" s="37"/>
-      <c r="AJ115" s="37"/>
-      <c r="AK115" s="37"/>
-      <c r="AL115" s="37"/>
-      <c r="AM115" s="37"/>
-      <c r="AN115" s="37"/>
-      <c r="AO115" s="37"/>
-      <c r="AP115" s="37"/>
-      <c r="AQ115" s="37"/>
-      <c r="AR115" s="37"/>
-      <c r="AS115" s="37"/>
-      <c r="AT115" s="37"/>
-      <c r="AU115" s="37"/>
-      <c r="AV115" s="37"/>
-      <c r="AW115" s="37"/>
-      <c r="AX115" s="37"/>
-      <c r="AY115" s="37"/>
-      <c r="AZ115" s="37"/>
-      <c r="BA115" s="37"/>
-      <c r="BB115" s="37"/>
-      <c r="BC115" s="37"/>
-      <c r="BD115" s="37"/>
-      <c r="BE115" s="37"/>
-      <c r="BF115" s="37"/>
-      <c r="BG115" s="37"/>
-      <c r="BH115" s="37"/>
-      <c r="BI115" s="37"/>
-      <c r="BJ115" s="37"/>
-      <c r="BK115" s="37"/>
-      <c r="BL115" s="37"/>
-      <c r="BM115" s="37"/>
-      <c r="BN115" s="37"/>
-      <c r="BO115" s="37"/>
-      <c r="BP115" s="37"/>
-      <c r="BQ115" s="37"/>
-      <c r="BR115" s="37"/>
-      <c r="BS115" s="37"/>
-      <c r="BT115" s="37"/>
-      <c r="BU115" s="37"/>
-      <c r="BV115" s="37"/>
-      <c r="BW115" s="37"/>
-      <c r="BX115" s="37"/>
-      <c r="BY115" s="37"/>
-      <c r="BZ115" s="37"/>
-      <c r="CA115" s="37"/>
-      <c r="CB115" s="37"/>
-      <c r="CC115" s="37"/>
-      <c r="CD115" s="37"/>
+      <c r="V115" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="W115" s="60"/>
+      <c r="X115" s="60"/>
+      <c r="Y115" s="60"/>
+      <c r="Z115" s="60"/>
+      <c r="AA115" s="60"/>
+      <c r="AB115" s="60"/>
+      <c r="AC115" s="60"/>
+      <c r="AD115" s="60"/>
+      <c r="AE115" s="60"/>
+      <c r="AF115" s="60"/>
+      <c r="AG115" s="60"/>
+      <c r="AH115" s="60"/>
+      <c r="AI115" s="60"/>
+      <c r="AJ115" s="60"/>
+      <c r="AK115" s="60"/>
+      <c r="AL115" s="60"/>
+      <c r="AM115" s="60"/>
+      <c r="AN115" s="60"/>
+      <c r="AO115" s="60"/>
+      <c r="AP115" s="60"/>
+      <c r="AQ115" s="60"/>
+      <c r="AR115" s="60"/>
+      <c r="AS115" s="60"/>
+      <c r="AT115" s="60"/>
+      <c r="AU115" s="60"/>
+      <c r="AV115" s="60"/>
+      <c r="AW115" s="60"/>
+      <c r="AX115" s="60"/>
+      <c r="AY115" s="60"/>
+      <c r="AZ115" s="60"/>
+      <c r="BA115" s="60"/>
+      <c r="BB115" s="60"/>
+      <c r="BC115" s="60"/>
+      <c r="BD115" s="60"/>
+      <c r="BE115" s="60"/>
+      <c r="BF115" s="60"/>
+      <c r="BG115" s="60"/>
+      <c r="BH115" s="60"/>
+      <c r="BI115" s="60"/>
+      <c r="BJ115" s="60"/>
+      <c r="BK115" s="60"/>
+      <c r="BL115" s="60"/>
+      <c r="BM115" s="60"/>
+      <c r="BN115" s="60"/>
+      <c r="BO115" s="60"/>
+      <c r="BP115" s="60"/>
+      <c r="BQ115" s="60"/>
+      <c r="BR115" s="60"/>
+      <c r="BS115" s="60"/>
+      <c r="BT115" s="60"/>
+      <c r="BU115" s="60"/>
+      <c r="BV115" s="60"/>
+      <c r="BW115" s="60"/>
+      <c r="BX115" s="60"/>
+      <c r="BY115" s="60"/>
+      <c r="BZ115" s="60"/>
+      <c r="CA115" s="60"/>
+      <c r="CB115" s="60"/>
+      <c r="CC115" s="60"/>
+      <c r="CD115" s="60"/>
     </row>
     <row r="116" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I116" s="37"/>
@@ -14068,67 +14738,67 @@
       <c r="S116" s="37"/>
       <c r="T116" s="37"/>
       <c r="U116" s="37"/>
-      <c r="V116" s="37"/>
-      <c r="W116" s="37"/>
-      <c r="X116" s="37"/>
-      <c r="Y116" s="37"/>
-      <c r="Z116" s="37"/>
-      <c r="AA116" s="37"/>
-      <c r="AB116" s="37"/>
-      <c r="AC116" s="37"/>
-      <c r="AD116" s="37"/>
-      <c r="AE116" s="37"/>
-      <c r="AF116" s="37"/>
-      <c r="AG116" s="37"/>
-      <c r="AH116" s="37"/>
-      <c r="AI116" s="37"/>
-      <c r="AJ116" s="37"/>
-      <c r="AK116" s="37"/>
-      <c r="AL116" s="37"/>
-      <c r="AM116" s="37"/>
-      <c r="AN116" s="37"/>
-      <c r="AO116" s="37"/>
-      <c r="AP116" s="37"/>
-      <c r="AQ116" s="37"/>
-      <c r="AR116" s="37"/>
-      <c r="AS116" s="37"/>
-      <c r="AT116" s="37"/>
-      <c r="AU116" s="37"/>
-      <c r="AV116" s="37"/>
-      <c r="AW116" s="37"/>
-      <c r="AX116" s="37"/>
-      <c r="AY116" s="37"/>
-      <c r="AZ116" s="37"/>
-      <c r="BA116" s="37"/>
-      <c r="BB116" s="37"/>
-      <c r="BC116" s="37"/>
-      <c r="BD116" s="37"/>
-      <c r="BE116" s="37"/>
-      <c r="BF116" s="37"/>
-      <c r="BG116" s="37"/>
-      <c r="BH116" s="37"/>
-      <c r="BI116" s="37"/>
-      <c r="BJ116" s="37"/>
-      <c r="BK116" s="37"/>
-      <c r="BL116" s="37"/>
-      <c r="BM116" s="37"/>
-      <c r="BN116" s="37"/>
-      <c r="BO116" s="37"/>
-      <c r="BP116" s="37"/>
-      <c r="BQ116" s="37"/>
-      <c r="BR116" s="37"/>
-      <c r="BS116" s="37"/>
-      <c r="BT116" s="37"/>
-      <c r="BU116" s="37"/>
-      <c r="BV116" s="37"/>
-      <c r="BW116" s="37"/>
-      <c r="BX116" s="37"/>
-      <c r="BY116" s="37"/>
-      <c r="BZ116" s="37"/>
-      <c r="CA116" s="37"/>
-      <c r="CB116" s="37"/>
-      <c r="CC116" s="37"/>
-      <c r="CD116" s="37"/>
+      <c r="V116" s="60"/>
+      <c r="W116" s="60"/>
+      <c r="X116" s="60"/>
+      <c r="Y116" s="60"/>
+      <c r="Z116" s="60"/>
+      <c r="AA116" s="60"/>
+      <c r="AB116" s="60"/>
+      <c r="AC116" s="60"/>
+      <c r="AD116" s="60"/>
+      <c r="AE116" s="60"/>
+      <c r="AF116" s="60"/>
+      <c r="AG116" s="60"/>
+      <c r="AH116" s="60"/>
+      <c r="AI116" s="60"/>
+      <c r="AJ116" s="60"/>
+      <c r="AK116" s="60"/>
+      <c r="AL116" s="60"/>
+      <c r="AM116" s="60"/>
+      <c r="AN116" s="60"/>
+      <c r="AO116" s="60"/>
+      <c r="AP116" s="60"/>
+      <c r="AQ116" s="60"/>
+      <c r="AR116" s="60"/>
+      <c r="AS116" s="60"/>
+      <c r="AT116" s="60"/>
+      <c r="AU116" s="60"/>
+      <c r="AV116" s="60"/>
+      <c r="AW116" s="60"/>
+      <c r="AX116" s="60"/>
+      <c r="AY116" s="60"/>
+      <c r="AZ116" s="60"/>
+      <c r="BA116" s="60"/>
+      <c r="BB116" s="60"/>
+      <c r="BC116" s="60"/>
+      <c r="BD116" s="60"/>
+      <c r="BE116" s="60"/>
+      <c r="BF116" s="60"/>
+      <c r="BG116" s="60"/>
+      <c r="BH116" s="60"/>
+      <c r="BI116" s="60"/>
+      <c r="BJ116" s="60"/>
+      <c r="BK116" s="60"/>
+      <c r="BL116" s="60"/>
+      <c r="BM116" s="60"/>
+      <c r="BN116" s="60"/>
+      <c r="BO116" s="60"/>
+      <c r="BP116" s="60"/>
+      <c r="BQ116" s="60"/>
+      <c r="BR116" s="60"/>
+      <c r="BS116" s="60"/>
+      <c r="BT116" s="60"/>
+      <c r="BU116" s="60"/>
+      <c r="BV116" s="60"/>
+      <c r="BW116" s="60"/>
+      <c r="BX116" s="60"/>
+      <c r="BY116" s="60"/>
+      <c r="BZ116" s="60"/>
+      <c r="CA116" s="60"/>
+      <c r="CB116" s="60"/>
+      <c r="CC116" s="60"/>
+      <c r="CD116" s="60"/>
     </row>
     <row r="117" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I117" s="37" t="s">
@@ -14601,7 +15271,7 @@
     </row>
     <row r="126" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I126" s="38" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J126" s="38"/>
       <c r="K126" s="38"/>
@@ -14615,7 +15285,9 @@
       <c r="S126" s="38"/>
       <c r="T126" s="38"/>
       <c r="U126" s="38"/>
-      <c r="V126" s="38"/>
+      <c r="V126" s="38" t="s">
+        <v>82</v>
+      </c>
       <c r="W126" s="38"/>
       <c r="X126" s="38"/>
       <c r="Y126" s="38"/>
@@ -14643,7 +15315,9 @@
       <c r="AU126" s="38"/>
       <c r="AV126" s="38"/>
       <c r="AW126" s="38"/>
-      <c r="AX126" s="38"/>
+      <c r="AX126" s="38" t="s">
+        <v>71</v>
+      </c>
       <c r="AY126" s="38"/>
       <c r="AZ126" s="38"/>
       <c r="BA126" s="38"/>
@@ -14655,13 +15329,17 @@
       <c r="BG126" s="38"/>
       <c r="BH126" s="38"/>
       <c r="BI126" s="38"/>
-      <c r="BJ126" s="38"/>
+      <c r="BJ126" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="BK126" s="38"/>
       <c r="BL126" s="38"/>
       <c r="BM126" s="38"/>
       <c r="BN126" s="38"/>
       <c r="BO126" s="38"/>
-      <c r="BP126" s="38"/>
+      <c r="BP126" s="38" t="s">
+        <v>59</v>
+      </c>
       <c r="BQ126" s="38"/>
       <c r="BR126" s="38"/>
       <c r="BS126" s="38"/>
@@ -14845,67 +15523,69 @@
       <c r="S129" s="37"/>
       <c r="T129" s="37"/>
       <c r="U129" s="37"/>
-      <c r="V129" s="58"/>
-      <c r="W129" s="37"/>
-      <c r="X129" s="37"/>
-      <c r="Y129" s="37"/>
-      <c r="Z129" s="37"/>
-      <c r="AA129" s="37"/>
-      <c r="AB129" s="37"/>
-      <c r="AC129" s="37"/>
-      <c r="AD129" s="37"/>
-      <c r="AE129" s="37"/>
-      <c r="AF129" s="37"/>
-      <c r="AG129" s="37"/>
-      <c r="AH129" s="37"/>
-      <c r="AI129" s="37"/>
-      <c r="AJ129" s="37"/>
-      <c r="AK129" s="37"/>
-      <c r="AL129" s="37"/>
-      <c r="AM129" s="37"/>
-      <c r="AN129" s="37"/>
-      <c r="AO129" s="37"/>
-      <c r="AP129" s="37"/>
-      <c r="AQ129" s="37"/>
-      <c r="AR129" s="37"/>
-      <c r="AS129" s="37"/>
-      <c r="AT129" s="37"/>
-      <c r="AU129" s="37"/>
-      <c r="AV129" s="37"/>
-      <c r="AW129" s="37"/>
-      <c r="AX129" s="37"/>
-      <c r="AY129" s="37"/>
-      <c r="AZ129" s="37"/>
-      <c r="BA129" s="37"/>
-      <c r="BB129" s="37"/>
-      <c r="BC129" s="37"/>
-      <c r="BD129" s="37"/>
-      <c r="BE129" s="37"/>
-      <c r="BF129" s="37"/>
-      <c r="BG129" s="37"/>
-      <c r="BH129" s="37"/>
-      <c r="BI129" s="37"/>
-      <c r="BJ129" s="37"/>
-      <c r="BK129" s="37"/>
-      <c r="BL129" s="37"/>
-      <c r="BM129" s="37"/>
-      <c r="BN129" s="37"/>
-      <c r="BO129" s="37"/>
-      <c r="BP129" s="37"/>
-      <c r="BQ129" s="37"/>
-      <c r="BR129" s="37"/>
-      <c r="BS129" s="37"/>
-      <c r="BT129" s="37"/>
-      <c r="BU129" s="37"/>
-      <c r="BV129" s="37"/>
-      <c r="BW129" s="37"/>
-      <c r="BX129" s="37"/>
-      <c r="BY129" s="37"/>
-      <c r="BZ129" s="37"/>
-      <c r="CA129" s="37"/>
-      <c r="CB129" s="37"/>
-      <c r="CC129" s="37"/>
-      <c r="CD129" s="37"/>
+      <c r="V129" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="W129" s="60"/>
+      <c r="X129" s="60"/>
+      <c r="Y129" s="60"/>
+      <c r="Z129" s="60"/>
+      <c r="AA129" s="60"/>
+      <c r="AB129" s="60"/>
+      <c r="AC129" s="60"/>
+      <c r="AD129" s="60"/>
+      <c r="AE129" s="60"/>
+      <c r="AF129" s="60"/>
+      <c r="AG129" s="60"/>
+      <c r="AH129" s="60"/>
+      <c r="AI129" s="60"/>
+      <c r="AJ129" s="60"/>
+      <c r="AK129" s="60"/>
+      <c r="AL129" s="60"/>
+      <c r="AM129" s="60"/>
+      <c r="AN129" s="60"/>
+      <c r="AO129" s="60"/>
+      <c r="AP129" s="60"/>
+      <c r="AQ129" s="60"/>
+      <c r="AR129" s="60"/>
+      <c r="AS129" s="60"/>
+      <c r="AT129" s="60"/>
+      <c r="AU129" s="60"/>
+      <c r="AV129" s="60"/>
+      <c r="AW129" s="60"/>
+      <c r="AX129" s="60"/>
+      <c r="AY129" s="60"/>
+      <c r="AZ129" s="60"/>
+      <c r="BA129" s="60"/>
+      <c r="BB129" s="60"/>
+      <c r="BC129" s="60"/>
+      <c r="BD129" s="60"/>
+      <c r="BE129" s="60"/>
+      <c r="BF129" s="60"/>
+      <c r="BG129" s="60"/>
+      <c r="BH129" s="60"/>
+      <c r="BI129" s="60"/>
+      <c r="BJ129" s="60"/>
+      <c r="BK129" s="60"/>
+      <c r="BL129" s="60"/>
+      <c r="BM129" s="60"/>
+      <c r="BN129" s="60"/>
+      <c r="BO129" s="60"/>
+      <c r="BP129" s="60"/>
+      <c r="BQ129" s="60"/>
+      <c r="BR129" s="60"/>
+      <c r="BS129" s="60"/>
+      <c r="BT129" s="60"/>
+      <c r="BU129" s="60"/>
+      <c r="BV129" s="60"/>
+      <c r="BW129" s="60"/>
+      <c r="BX129" s="60"/>
+      <c r="BY129" s="60"/>
+      <c r="BZ129" s="60"/>
+      <c r="CA129" s="60"/>
+      <c r="CB129" s="60"/>
+      <c r="CC129" s="60"/>
+      <c r="CD129" s="60"/>
     </row>
     <row r="130" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I130" s="37"/>
@@ -14921,67 +15601,67 @@
       <c r="S130" s="37"/>
       <c r="T130" s="37"/>
       <c r="U130" s="37"/>
-      <c r="V130" s="37"/>
-      <c r="W130" s="37"/>
-      <c r="X130" s="37"/>
-      <c r="Y130" s="37"/>
-      <c r="Z130" s="37"/>
-      <c r="AA130" s="37"/>
-      <c r="AB130" s="37"/>
-      <c r="AC130" s="37"/>
-      <c r="AD130" s="37"/>
-      <c r="AE130" s="37"/>
-      <c r="AF130" s="37"/>
-      <c r="AG130" s="37"/>
-      <c r="AH130" s="37"/>
-      <c r="AI130" s="37"/>
-      <c r="AJ130" s="37"/>
-      <c r="AK130" s="37"/>
-      <c r="AL130" s="37"/>
-      <c r="AM130" s="37"/>
-      <c r="AN130" s="37"/>
-      <c r="AO130" s="37"/>
-      <c r="AP130" s="37"/>
-      <c r="AQ130" s="37"/>
-      <c r="AR130" s="37"/>
-      <c r="AS130" s="37"/>
-      <c r="AT130" s="37"/>
-      <c r="AU130" s="37"/>
-      <c r="AV130" s="37"/>
-      <c r="AW130" s="37"/>
-      <c r="AX130" s="37"/>
-      <c r="AY130" s="37"/>
-      <c r="AZ130" s="37"/>
-      <c r="BA130" s="37"/>
-      <c r="BB130" s="37"/>
-      <c r="BC130" s="37"/>
-      <c r="BD130" s="37"/>
-      <c r="BE130" s="37"/>
-      <c r="BF130" s="37"/>
-      <c r="BG130" s="37"/>
-      <c r="BH130" s="37"/>
-      <c r="BI130" s="37"/>
-      <c r="BJ130" s="37"/>
-      <c r="BK130" s="37"/>
-      <c r="BL130" s="37"/>
-      <c r="BM130" s="37"/>
-      <c r="BN130" s="37"/>
-      <c r="BO130" s="37"/>
-      <c r="BP130" s="37"/>
-      <c r="BQ130" s="37"/>
-      <c r="BR130" s="37"/>
-      <c r="BS130" s="37"/>
-      <c r="BT130" s="37"/>
-      <c r="BU130" s="37"/>
-      <c r="BV130" s="37"/>
-      <c r="BW130" s="37"/>
-      <c r="BX130" s="37"/>
-      <c r="BY130" s="37"/>
-      <c r="BZ130" s="37"/>
-      <c r="CA130" s="37"/>
-      <c r="CB130" s="37"/>
-      <c r="CC130" s="37"/>
-      <c r="CD130" s="37"/>
+      <c r="V130" s="60"/>
+      <c r="W130" s="60"/>
+      <c r="X130" s="60"/>
+      <c r="Y130" s="60"/>
+      <c r="Z130" s="60"/>
+      <c r="AA130" s="60"/>
+      <c r="AB130" s="60"/>
+      <c r="AC130" s="60"/>
+      <c r="AD130" s="60"/>
+      <c r="AE130" s="60"/>
+      <c r="AF130" s="60"/>
+      <c r="AG130" s="60"/>
+      <c r="AH130" s="60"/>
+      <c r="AI130" s="60"/>
+      <c r="AJ130" s="60"/>
+      <c r="AK130" s="60"/>
+      <c r="AL130" s="60"/>
+      <c r="AM130" s="60"/>
+      <c r="AN130" s="60"/>
+      <c r="AO130" s="60"/>
+      <c r="AP130" s="60"/>
+      <c r="AQ130" s="60"/>
+      <c r="AR130" s="60"/>
+      <c r="AS130" s="60"/>
+      <c r="AT130" s="60"/>
+      <c r="AU130" s="60"/>
+      <c r="AV130" s="60"/>
+      <c r="AW130" s="60"/>
+      <c r="AX130" s="60"/>
+      <c r="AY130" s="60"/>
+      <c r="AZ130" s="60"/>
+      <c r="BA130" s="60"/>
+      <c r="BB130" s="60"/>
+      <c r="BC130" s="60"/>
+      <c r="BD130" s="60"/>
+      <c r="BE130" s="60"/>
+      <c r="BF130" s="60"/>
+      <c r="BG130" s="60"/>
+      <c r="BH130" s="60"/>
+      <c r="BI130" s="60"/>
+      <c r="BJ130" s="60"/>
+      <c r="BK130" s="60"/>
+      <c r="BL130" s="60"/>
+      <c r="BM130" s="60"/>
+      <c r="BN130" s="60"/>
+      <c r="BO130" s="60"/>
+      <c r="BP130" s="60"/>
+      <c r="BQ130" s="60"/>
+      <c r="BR130" s="60"/>
+      <c r="BS130" s="60"/>
+      <c r="BT130" s="60"/>
+      <c r="BU130" s="60"/>
+      <c r="BV130" s="60"/>
+      <c r="BW130" s="60"/>
+      <c r="BX130" s="60"/>
+      <c r="BY130" s="60"/>
+      <c r="BZ130" s="60"/>
+      <c r="CA130" s="60"/>
+      <c r="CB130" s="60"/>
+      <c r="CC130" s="60"/>
+      <c r="CD130" s="60"/>
     </row>
     <row r="131" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I131" s="37" t="s">
@@ -15454,7 +16134,7 @@
     </row>
     <row r="140" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I140" s="38" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="J140" s="38"/>
       <c r="K140" s="38"/>
@@ -15468,7 +16148,9 @@
       <c r="S140" s="38"/>
       <c r="T140" s="38"/>
       <c r="U140" s="38"/>
-      <c r="V140" s="38"/>
+      <c r="V140" s="38" t="s">
+        <v>83</v>
+      </c>
       <c r="W140" s="38"/>
       <c r="X140" s="38"/>
       <c r="Y140" s="38"/>
@@ -15496,7 +16178,9 @@
       <c r="AU140" s="38"/>
       <c r="AV140" s="38"/>
       <c r="AW140" s="38"/>
-      <c r="AX140" s="38"/>
+      <c r="AX140" s="38" t="s">
+        <v>71</v>
+      </c>
       <c r="AY140" s="38"/>
       <c r="AZ140" s="38"/>
       <c r="BA140" s="38"/>
@@ -15508,13 +16192,17 @@
       <c r="BG140" s="38"/>
       <c r="BH140" s="38"/>
       <c r="BI140" s="38"/>
-      <c r="BJ140" s="38"/>
+      <c r="BJ140" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="BK140" s="38"/>
       <c r="BL140" s="38"/>
       <c r="BM140" s="38"/>
       <c r="BN140" s="38"/>
       <c r="BO140" s="38"/>
-      <c r="BP140" s="38"/>
+      <c r="BP140" s="38" t="s">
+        <v>60</v>
+      </c>
       <c r="BQ140" s="38"/>
       <c r="BR140" s="38"/>
       <c r="BS140" s="38"/>
@@ -15698,67 +16386,69 @@
       <c r="S143" s="37"/>
       <c r="T143" s="37"/>
       <c r="U143" s="37"/>
-      <c r="V143" s="58"/>
-      <c r="W143" s="37"/>
-      <c r="X143" s="37"/>
-      <c r="Y143" s="37"/>
-      <c r="Z143" s="37"/>
-      <c r="AA143" s="37"/>
-      <c r="AB143" s="37"/>
-      <c r="AC143" s="37"/>
-      <c r="AD143" s="37"/>
-      <c r="AE143" s="37"/>
-      <c r="AF143" s="37"/>
-      <c r="AG143" s="37"/>
-      <c r="AH143" s="37"/>
-      <c r="AI143" s="37"/>
-      <c r="AJ143" s="37"/>
-      <c r="AK143" s="37"/>
-      <c r="AL143" s="37"/>
-      <c r="AM143" s="37"/>
-      <c r="AN143" s="37"/>
-      <c r="AO143" s="37"/>
-      <c r="AP143" s="37"/>
-      <c r="AQ143" s="37"/>
-      <c r="AR143" s="37"/>
-      <c r="AS143" s="37"/>
-      <c r="AT143" s="37"/>
-      <c r="AU143" s="37"/>
-      <c r="AV143" s="37"/>
-      <c r="AW143" s="37"/>
-      <c r="AX143" s="37"/>
-      <c r="AY143" s="37"/>
-      <c r="AZ143" s="37"/>
-      <c r="BA143" s="37"/>
-      <c r="BB143" s="37"/>
-      <c r="BC143" s="37"/>
-      <c r="BD143" s="37"/>
-      <c r="BE143" s="37"/>
-      <c r="BF143" s="37"/>
-      <c r="BG143" s="37"/>
-      <c r="BH143" s="37"/>
-      <c r="BI143" s="37"/>
-      <c r="BJ143" s="37"/>
-      <c r="BK143" s="37"/>
-      <c r="BL143" s="37"/>
-      <c r="BM143" s="37"/>
-      <c r="BN143" s="37"/>
-      <c r="BO143" s="37"/>
-      <c r="BP143" s="37"/>
-      <c r="BQ143" s="37"/>
-      <c r="BR143" s="37"/>
-      <c r="BS143" s="37"/>
-      <c r="BT143" s="37"/>
-      <c r="BU143" s="37"/>
-      <c r="BV143" s="37"/>
-      <c r="BW143" s="37"/>
-      <c r="BX143" s="37"/>
-      <c r="BY143" s="37"/>
-      <c r="BZ143" s="37"/>
-      <c r="CA143" s="37"/>
-      <c r="CB143" s="37"/>
-      <c r="CC143" s="37"/>
-      <c r="CD143" s="37"/>
+      <c r="V143" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="W143" s="60"/>
+      <c r="X143" s="60"/>
+      <c r="Y143" s="60"/>
+      <c r="Z143" s="60"/>
+      <c r="AA143" s="60"/>
+      <c r="AB143" s="60"/>
+      <c r="AC143" s="60"/>
+      <c r="AD143" s="60"/>
+      <c r="AE143" s="60"/>
+      <c r="AF143" s="60"/>
+      <c r="AG143" s="60"/>
+      <c r="AH143" s="60"/>
+      <c r="AI143" s="60"/>
+      <c r="AJ143" s="60"/>
+      <c r="AK143" s="60"/>
+      <c r="AL143" s="60"/>
+      <c r="AM143" s="60"/>
+      <c r="AN143" s="60"/>
+      <c r="AO143" s="60"/>
+      <c r="AP143" s="60"/>
+      <c r="AQ143" s="60"/>
+      <c r="AR143" s="60"/>
+      <c r="AS143" s="60"/>
+      <c r="AT143" s="60"/>
+      <c r="AU143" s="60"/>
+      <c r="AV143" s="60"/>
+      <c r="AW143" s="60"/>
+      <c r="AX143" s="60"/>
+      <c r="AY143" s="60"/>
+      <c r="AZ143" s="60"/>
+      <c r="BA143" s="60"/>
+      <c r="BB143" s="60"/>
+      <c r="BC143" s="60"/>
+      <c r="BD143" s="60"/>
+      <c r="BE143" s="60"/>
+      <c r="BF143" s="60"/>
+      <c r="BG143" s="60"/>
+      <c r="BH143" s="60"/>
+      <c r="BI143" s="60"/>
+      <c r="BJ143" s="60"/>
+      <c r="BK143" s="60"/>
+      <c r="BL143" s="60"/>
+      <c r="BM143" s="60"/>
+      <c r="BN143" s="60"/>
+      <c r="BO143" s="60"/>
+      <c r="BP143" s="60"/>
+      <c r="BQ143" s="60"/>
+      <c r="BR143" s="60"/>
+      <c r="BS143" s="60"/>
+      <c r="BT143" s="60"/>
+      <c r="BU143" s="60"/>
+      <c r="BV143" s="60"/>
+      <c r="BW143" s="60"/>
+      <c r="BX143" s="60"/>
+      <c r="BY143" s="60"/>
+      <c r="BZ143" s="60"/>
+      <c r="CA143" s="60"/>
+      <c r="CB143" s="60"/>
+      <c r="CC143" s="60"/>
+      <c r="CD143" s="60"/>
     </row>
     <row r="144" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I144" s="37"/>
@@ -15774,67 +16464,67 @@
       <c r="S144" s="37"/>
       <c r="T144" s="37"/>
       <c r="U144" s="37"/>
-      <c r="V144" s="37"/>
-      <c r="W144" s="37"/>
-      <c r="X144" s="37"/>
-      <c r="Y144" s="37"/>
-      <c r="Z144" s="37"/>
-      <c r="AA144" s="37"/>
-      <c r="AB144" s="37"/>
-      <c r="AC144" s="37"/>
-      <c r="AD144" s="37"/>
-      <c r="AE144" s="37"/>
-      <c r="AF144" s="37"/>
-      <c r="AG144" s="37"/>
-      <c r="AH144" s="37"/>
-      <c r="AI144" s="37"/>
-      <c r="AJ144" s="37"/>
-      <c r="AK144" s="37"/>
-      <c r="AL144" s="37"/>
-      <c r="AM144" s="37"/>
-      <c r="AN144" s="37"/>
-      <c r="AO144" s="37"/>
-      <c r="AP144" s="37"/>
-      <c r="AQ144" s="37"/>
-      <c r="AR144" s="37"/>
-      <c r="AS144" s="37"/>
-      <c r="AT144" s="37"/>
-      <c r="AU144" s="37"/>
-      <c r="AV144" s="37"/>
-      <c r="AW144" s="37"/>
-      <c r="AX144" s="37"/>
-      <c r="AY144" s="37"/>
-      <c r="AZ144" s="37"/>
-      <c r="BA144" s="37"/>
-      <c r="BB144" s="37"/>
-      <c r="BC144" s="37"/>
-      <c r="BD144" s="37"/>
-      <c r="BE144" s="37"/>
-      <c r="BF144" s="37"/>
-      <c r="BG144" s="37"/>
-      <c r="BH144" s="37"/>
-      <c r="BI144" s="37"/>
-      <c r="BJ144" s="37"/>
-      <c r="BK144" s="37"/>
-      <c r="BL144" s="37"/>
-      <c r="BM144" s="37"/>
-      <c r="BN144" s="37"/>
-      <c r="BO144" s="37"/>
-      <c r="BP144" s="37"/>
-      <c r="BQ144" s="37"/>
-      <c r="BR144" s="37"/>
-      <c r="BS144" s="37"/>
-      <c r="BT144" s="37"/>
-      <c r="BU144" s="37"/>
-      <c r="BV144" s="37"/>
-      <c r="BW144" s="37"/>
-      <c r="BX144" s="37"/>
-      <c r="BY144" s="37"/>
-      <c r="BZ144" s="37"/>
-      <c r="CA144" s="37"/>
-      <c r="CB144" s="37"/>
-      <c r="CC144" s="37"/>
-      <c r="CD144" s="37"/>
+      <c r="V144" s="60"/>
+      <c r="W144" s="60"/>
+      <c r="X144" s="60"/>
+      <c r="Y144" s="60"/>
+      <c r="Z144" s="60"/>
+      <c r="AA144" s="60"/>
+      <c r="AB144" s="60"/>
+      <c r="AC144" s="60"/>
+      <c r="AD144" s="60"/>
+      <c r="AE144" s="60"/>
+      <c r="AF144" s="60"/>
+      <c r="AG144" s="60"/>
+      <c r="AH144" s="60"/>
+      <c r="AI144" s="60"/>
+      <c r="AJ144" s="60"/>
+      <c r="AK144" s="60"/>
+      <c r="AL144" s="60"/>
+      <c r="AM144" s="60"/>
+      <c r="AN144" s="60"/>
+      <c r="AO144" s="60"/>
+      <c r="AP144" s="60"/>
+      <c r="AQ144" s="60"/>
+      <c r="AR144" s="60"/>
+      <c r="AS144" s="60"/>
+      <c r="AT144" s="60"/>
+      <c r="AU144" s="60"/>
+      <c r="AV144" s="60"/>
+      <c r="AW144" s="60"/>
+      <c r="AX144" s="60"/>
+      <c r="AY144" s="60"/>
+      <c r="AZ144" s="60"/>
+      <c r="BA144" s="60"/>
+      <c r="BB144" s="60"/>
+      <c r="BC144" s="60"/>
+      <c r="BD144" s="60"/>
+      <c r="BE144" s="60"/>
+      <c r="BF144" s="60"/>
+      <c r="BG144" s="60"/>
+      <c r="BH144" s="60"/>
+      <c r="BI144" s="60"/>
+      <c r="BJ144" s="60"/>
+      <c r="BK144" s="60"/>
+      <c r="BL144" s="60"/>
+      <c r="BM144" s="60"/>
+      <c r="BN144" s="60"/>
+      <c r="BO144" s="60"/>
+      <c r="BP144" s="60"/>
+      <c r="BQ144" s="60"/>
+      <c r="BR144" s="60"/>
+      <c r="BS144" s="60"/>
+      <c r="BT144" s="60"/>
+      <c r="BU144" s="60"/>
+      <c r="BV144" s="60"/>
+      <c r="BW144" s="60"/>
+      <c r="BX144" s="60"/>
+      <c r="BY144" s="60"/>
+      <c r="BZ144" s="60"/>
+      <c r="CA144" s="60"/>
+      <c r="CB144" s="60"/>
+      <c r="CC144" s="60"/>
+      <c r="CD144" s="60"/>
     </row>
     <row r="145" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I145" s="37" t="s">
@@ -16306,9 +16996,7 @@
       <c r="CD153" s="39"/>
     </row>
     <row r="154" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I154" s="38" t="s">
-        <v>26</v>
-      </c>
+      <c r="I154" s="38"/>
       <c r="J154" s="38"/>
       <c r="K154" s="38"/>
       <c r="L154" s="38"/>
@@ -17159,9 +17847,7 @@
       <c r="CD167" s="39"/>
     </row>
     <row r="168" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I168" s="38" t="s">
-        <v>26</v>
-      </c>
+      <c r="I168" s="38"/>
       <c r="J168" s="38"/>
       <c r="K168" s="38"/>
       <c r="L168" s="38"/>
@@ -18012,9 +18698,7 @@
       <c r="CD181" s="39"/>
     </row>
     <row r="182" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I182" s="38" t="s">
-        <v>26</v>
-      </c>
+      <c r="I182" s="38"/>
       <c r="J182" s="38"/>
       <c r="K182" s="38"/>
       <c r="L182" s="38"/>
@@ -18865,9 +19549,7 @@
       <c r="CD195" s="39"/>
     </row>
     <row r="196" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I196" s="38" t="s">
-        <v>26</v>
-      </c>
+      <c r="I196" s="38"/>
       <c r="J196" s="38"/>
       <c r="K196" s="38"/>
       <c r="L196" s="38"/>
@@ -19718,9 +20400,7 @@
       <c r="CD209" s="39"/>
     </row>
     <row r="210" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I210" s="38" t="s">
-        <v>26</v>
-      </c>
+      <c r="I210" s="38"/>
       <c r="J210" s="38"/>
       <c r="K210" s="38"/>
       <c r="L210" s="38"/>
@@ -20571,9 +21251,7 @@
       <c r="CD223" s="39"/>
     </row>
     <row r="224" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I224" s="38" t="s">
-        <v>26</v>
-      </c>
+      <c r="I224" s="38"/>
       <c r="J224" s="38"/>
       <c r="K224" s="38"/>
       <c r="L224" s="38"/>
@@ -21424,9 +22102,7 @@
       <c r="CD237" s="39"/>
     </row>
     <row r="238" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I238" s="38" t="s">
-        <v>26</v>
-      </c>
+      <c r="I238" s="38"/>
       <c r="J238" s="38"/>
       <c r="K238" s="38"/>
       <c r="L238" s="38"/>
@@ -22277,9 +22953,7 @@
       <c r="CD251" s="39"/>
     </row>
     <row r="252" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I252" s="38" t="s">
-        <v>26</v>
-      </c>
+      <c r="I252" s="38"/>
       <c r="J252" s="38"/>
       <c r="K252" s="38"/>
       <c r="L252" s="38"/>
@@ -23130,9 +23804,7 @@
       <c r="CD265" s="39"/>
     </row>
     <row r="266" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I266" s="38" t="s">
-        <v>26</v>
-      </c>
+      <c r="I266" s="38"/>
       <c r="J266" s="38"/>
       <c r="K266" s="38"/>
       <c r="L266" s="38"/>
@@ -23983,9 +24655,7 @@
       <c r="CD279" s="39"/>
     </row>
     <row r="280" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I280" s="38" t="s">
-        <v>26</v>
-      </c>
+      <c r="I280" s="38"/>
       <c r="J280" s="38"/>
       <c r="K280" s="38"/>
       <c r="L280" s="38"/>
@@ -24930,8 +25600,17 @@
     <hyperlink ref="A6:G7" location="トップページ!A1" display="トップページ" xr:uid="{600B7C07-623B-44F8-B64E-D46ABA3B4BC0}"/>
     <hyperlink ref="A8:G9" location="SE_MEリソース!A1" display="SE_MEリソース" xr:uid="{365405D1-5510-4074-B0D4-BFCB3C4AF535}"/>
     <hyperlink ref="A10:G11" location="SE_ME詳細!A1" display="SE_ME詳細" xr:uid="{6463A463-49BB-48F3-BFA2-511AD0C26E73}"/>
+    <hyperlink ref="V17:CD18" r:id="rId1" display="・決定：https://www.springin.org/sound-stock/category/system/" xr:uid="{02F16612-26C8-4BE4-A858-DA6624529787}"/>
+    <hyperlink ref="V45:CD46" r:id="rId2" display="キャンセル-15：https://umipla.com/soundeffect/4388" xr:uid="{DCC1B6D1-662E-4AC6-92D8-3F3CAC2ABC2D}"/>
+    <hyperlink ref="V59:CD60" r:id="rId3" display="ぴちょん単発：https://www.springin.org/sound-stock/category/environment/" xr:uid="{F82744E1-6DE4-40AB-BB38-066E1B4BF938}"/>
+    <hyperlink ref="V73:CD74" r:id="rId4" display="：https://soundeffect-lab.info/sound/various/" xr:uid="{89F69164-7A5C-4E3D-81ED-8A4EAC3F3B40}"/>
+    <hyperlink ref="V87:CD88" r:id="rId5" display="電子ルーレット停止ボタンを押す：https://soundeffect-lab.info/sound/button/" xr:uid="{67EAA8AC-1D7F-48DB-9281-C65E58A1C9E7}"/>
+    <hyperlink ref="V101:CD102" r:id="rId6" display="電子ルーレットの出目が点滅：https://soundeffect-lab.info/sound/button/" xr:uid="{0D71E2BA-5A72-4A14-8447-140384432B27}"/>
+    <hyperlink ref="V115:CD116" r:id="rId7" display="文字送りaループ用：https://www.springin.org/sound-stock/category/system/page/2/" xr:uid="{0F810162-2160-46E2-BB0D-92001CC3B116}"/>
+    <hyperlink ref="V129:CD130" r:id="rId8" display="オーラが溢れる：https://se-factory.net/animegame" xr:uid="{AEE635BE-8880-475F-A110-2F0121458839}"/>
+    <hyperlink ref="V143:CD144" r:id="rId9" display="大砲２：https://www.springin.org/sound-stock/category/battle/page/4/" xr:uid="{14744E09-E853-42EA-AC2B-9FD0ACE72D01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>